--- a/model/access_model.xlsx
+++ b/model/access_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelp\greenback\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFDDE0D-8A77-4B60-8996-76C277DEF270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC3CEA3-67B0-47F6-97AF-ACC20DB6352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,7 +945,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="16"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1409,9 +1409,6 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1484,7 +1481,17 @@
     <cellStyle name="general_style" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1502,6 +1509,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1590,8 +1627,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1608,24 +1645,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd" cmpd="sng">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -1635,7 +1686,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>projections!$AW$10:$AW$49</c:f>
               <c:numCache>
@@ -1763,8 +1814,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>projections!$BC$10:$BC$49</c:f>
               <c:numCache>
@@ -1892,11 +1943,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A825-4323-A054-24E0A8CA056A}"/>
+              <c16:uniqueId val="{00000001-21AA-468B-9623-8143B251B5EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1908,19 +1959,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="886827296"/>
         <c:axId val="886827776"/>
-      </c:lineChart>
-      <c:dateAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="886827296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1928,8 +1992,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:prstDash val="solid"/>
@@ -1958,10 +2022,8 @@
         </c:txPr>
         <c:crossAx val="886827776"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="886827776"/>
         <c:scaling>
@@ -1989,9 +2051,15 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -2016,7 +2084,7 @@
         </c:txPr>
         <c:crossAx val="886827296"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2029,10 +2097,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:prstDash val="solid"/>
       <a:round/>
@@ -2466,40 +2531,40 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178">
+      <c r="B1" s="177">
         <v>2023</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="178">
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="177">
         <f>B1-1</f>
         <v>2022</v>
       </c>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="178">
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="177">
         <f>F1-1</f>
         <v>2021</v>
       </c>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="178">
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="177">
         <f>J1-1</f>
         <v>2020</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="178">
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="177">
         <f>N1-1</f>
         <v>2019</v>
       </c>
-      <c r="S1" s="179"/>
-      <c r="T1" s="179"/>
-      <c r="U1" s="180"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="179"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -2916,26 +2981,26 @@
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="203"/>
-      <c r="C13" s="203"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="202"/>
       <c r="D13" s="75"/>
-      <c r="E13" s="203"/>
+      <c r="E13" s="202"/>
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
       <c r="H13" s="75"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="203"/>
-      <c r="K13" s="203"/>
-      <c r="L13" s="203"/>
-      <c r="M13" s="203"/>
-      <c r="N13" s="203"/>
-      <c r="O13" s="203"/>
-      <c r="P13" s="203"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="202"/>
       <c r="Q13" s="75"/>
-      <c r="R13" s="203"/>
-      <c r="S13" s="203"/>
-      <c r="T13" s="203"/>
-      <c r="U13" s="204"/>
+      <c r="R13" s="202"/>
+      <c r="S13" s="202"/>
+      <c r="T13" s="202"/>
+      <c r="U13" s="203"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3003,8 +3068,8 @@
       <c r="L15" s="73"/>
       <c r="M15" s="73"/>
       <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
       <c r="Q15" s="73"/>
       <c r="R15" s="73"/>
       <c r="S15" s="73"/>
@@ -3212,8 +3277,8 @@
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="203"/>
-      <c r="C21" s="203"/>
+      <c r="B21" s="202"/>
+      <c r="C21" s="202"/>
       <c r="D21" s="75"/>
       <c r="E21" s="75"/>
       <c r="F21" s="75"/>
@@ -3249,8 +3314,8 @@
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="203"/>
-      <c r="C22" s="203"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="202"/>
       <c r="D22" s="75"/>
       <c r="E22" s="75"/>
       <c r="F22" s="75"/>
@@ -3360,8 +3425,8 @@
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="203"/>
-      <c r="C25" s="203"/>
+      <c r="B25" s="202"/>
+      <c r="C25" s="202"/>
       <c r="D25" s="75"/>
       <c r="E25" s="75"/>
       <c r="F25" s="75"/>
@@ -3822,40 +3887,40 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178">
+      <c r="B1" s="177">
         <v>2023</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="178">
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="177">
         <f>B1-1</f>
         <v>2022</v>
       </c>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="178">
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="177">
         <f>F1-1</f>
         <v>2021</v>
       </c>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="178">
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="177">
         <f>J1-1</f>
         <v>2020</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="178">
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="177">
         <f>N1-1</f>
         <v>2019</v>
       </c>
-      <c r="S1" s="179"/>
-      <c r="T1" s="179"/>
-      <c r="U1" s="180"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="179"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4314,8 +4379,8 @@
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="203"/>
-      <c r="C19" s="203"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="202"/>
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
@@ -4597,18 +4662,18 @@
       <c r="G30" s="73"/>
       <c r="H30" s="73"/>
       <c r="I30" s="73"/>
-      <c r="J30" s="203"/>
-      <c r="K30" s="203"/>
+      <c r="J30" s="202"/>
+      <c r="K30" s="202"/>
       <c r="L30" s="73"/>
-      <c r="M30" s="75"/>
+      <c r="M30" s="73"/>
       <c r="N30" s="73"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="203"/>
-      <c r="Q30" s="203"/>
-      <c r="R30" s="203"/>
-      <c r="S30" s="203"/>
-      <c r="T30" s="203"/>
-      <c r="U30" s="204"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="202"/>
+      <c r="Q30" s="202"/>
+      <c r="R30" s="202"/>
+      <c r="S30" s="202"/>
+      <c r="T30" s="202"/>
+      <c r="U30" s="203"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -4689,8 +4754,8 @@
       <c r="A34" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="203"/>
-      <c r="C34" s="203"/>
+      <c r="B34" s="202"/>
+      <c r="C34" s="202"/>
       <c r="D34" s="75"/>
       <c r="E34" s="75"/>
       <c r="F34" s="75"/>
@@ -4739,8 +4804,8 @@
       <c r="A36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="205"/>
-      <c r="C36" s="205"/>
+      <c r="B36" s="204"/>
+      <c r="C36" s="204"/>
       <c r="D36" s="155"/>
       <c r="E36" s="155"/>
       <c r="F36" s="155"/>
@@ -4790,40 +4855,40 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178">
+      <c r="B1" s="177">
         <v>2023</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="178">
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="177">
         <f>B1-1</f>
         <v>2022</v>
       </c>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="178">
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="177">
         <f>F1-1</f>
         <v>2021</v>
       </c>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="178">
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="177">
         <f>J1-1</f>
         <v>2020</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="178">
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="177">
         <f>N1-1</f>
         <v>2019</v>
       </c>
-      <c r="S1" s="179"/>
-      <c r="T1" s="179"/>
-      <c r="U1" s="180"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="179"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4987,14 +5052,14 @@
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
       <c r="F7" s="73"/>
-      <c r="G7" s="203"/>
-      <c r="H7" s="73"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
       <c r="K7" s="75"/>
       <c r="L7" s="73"/>
       <c r="M7" s="73"/>
-      <c r="N7" s="203"/>
+      <c r="N7" s="202"/>
       <c r="O7" s="73"/>
       <c r="P7" s="73"/>
       <c r="Q7" s="73"/>
@@ -5082,75 +5147,75 @@
       <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="203"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="203"/>
-      <c r="L11" s="203"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="203"/>
-      <c r="O11" s="203"/>
-      <c r="P11" s="203"/>
+      <c r="B11" s="202"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="202"/>
       <c r="Q11" s="75"/>
-      <c r="R11" s="203"/>
-      <c r="S11" s="203"/>
-      <c r="T11" s="203"/>
-      <c r="U11" s="204"/>
+      <c r="R11" s="202"/>
+      <c r="S11" s="202"/>
+      <c r="T11" s="202"/>
+      <c r="U11" s="203"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="73"/>
-      <c r="C12" s="203"/>
+      <c r="C12" s="202"/>
       <c r="D12" s="73"/>
       <c r="E12" s="75"/>
       <c r="F12" s="73"/>
-      <c r="G12" s="203"/>
-      <c r="H12" s="73"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="73"/>
       <c r="J12" s="73"/>
       <c r="K12" s="73"/>
       <c r="L12" s="73"/>
-      <c r="M12" s="203"/>
-      <c r="N12" s="203"/>
+      <c r="M12" s="202"/>
+      <c r="N12" s="202"/>
       <c r="O12" s="73"/>
-      <c r="P12" s="203"/>
-      <c r="Q12" s="203"/>
+      <c r="P12" s="202"/>
+      <c r="Q12" s="202"/>
       <c r="R12" s="75"/>
       <c r="S12" s="73"/>
-      <c r="T12" s="203"/>
+      <c r="T12" s="202"/>
       <c r="U12" s="74"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="203"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202"/>
       <c r="E13" s="75"/>
-      <c r="F13" s="203"/>
+      <c r="F13" s="202"/>
       <c r="G13" s="75"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="203"/>
-      <c r="K13" s="203"/>
-      <c r="L13" s="203"/>
-      <c r="M13" s="203"/>
-      <c r="N13" s="203"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="202"/>
       <c r="O13" s="75"/>
-      <c r="P13" s="203"/>
-      <c r="Q13" s="203"/>
+      <c r="P13" s="202"/>
+      <c r="Q13" s="202"/>
       <c r="R13" s="75"/>
       <c r="S13" s="75"/>
-      <c r="T13" s="203"/>
+      <c r="T13" s="202"/>
       <c r="U13" s="76"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -5166,7 +5231,7 @@
       <c r="H14" s="73"/>
       <c r="I14" s="73"/>
       <c r="J14" s="73"/>
-      <c r="K14" s="203"/>
+      <c r="K14" s="202"/>
       <c r="L14" s="73"/>
       <c r="M14" s="73"/>
       <c r="N14" s="73"/>
@@ -5188,20 +5253,20 @@
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="73"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="75"/>
-      <c r="K15" s="73"/>
+      <c r="K15" s="75"/>
       <c r="L15" s="75"/>
-      <c r="M15" s="73"/>
+      <c r="M15" s="75"/>
       <c r="N15" s="75"/>
-      <c r="O15" s="73"/>
+      <c r="O15" s="75"/>
       <c r="P15" s="75"/>
-      <c r="Q15" s="73"/>
+      <c r="Q15" s="75"/>
       <c r="R15" s="75"/>
-      <c r="S15" s="73"/>
+      <c r="S15" s="75"/>
       <c r="T15" s="75"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="76"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -5209,7 +5274,7 @@
       </c>
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
-      <c r="D16" s="203"/>
+      <c r="D16" s="202"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="73"/>
@@ -5226,32 +5291,32 @@
       <c r="R16" s="73"/>
       <c r="S16" s="73"/>
       <c r="T16" s="73"/>
-      <c r="U16" s="204"/>
+      <c r="U16" s="203"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="203"/>
-      <c r="C17" s="203"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="202"/>
       <c r="D17" s="73"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
       <c r="G17" s="73"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="203"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="203"/>
-      <c r="M17" s="203"/>
-      <c r="N17" s="203"/>
-      <c r="O17" s="203"/>
-      <c r="P17" s="203"/>
-      <c r="Q17" s="203"/>
-      <c r="R17" s="203"/>
-      <c r="S17" s="203"/>
-      <c r="T17" s="203"/>
-      <c r="U17" s="204"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="202"/>
+      <c r="M17" s="202"/>
+      <c r="N17" s="202"/>
+      <c r="O17" s="202"/>
+      <c r="P17" s="202"/>
+      <c r="Q17" s="202"/>
+      <c r="R17" s="202"/>
+      <c r="S17" s="202"/>
+      <c r="T17" s="202"/>
+      <c r="U17" s="203"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -5260,23 +5325,23 @@
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
       <c r="D18" s="73"/>
-      <c r="E18" s="203"/>
+      <c r="E18" s="202"/>
       <c r="F18" s="75"/>
       <c r="G18" s="73"/>
       <c r="H18" s="73"/>
-      <c r="I18" s="203"/>
+      <c r="I18" s="202"/>
       <c r="J18" s="73"/>
       <c r="K18" s="73"/>
       <c r="L18" s="73"/>
       <c r="M18" s="73"/>
       <c r="N18" s="73"/>
-      <c r="O18" s="203"/>
-      <c r="P18" s="203"/>
-      <c r="Q18" s="203"/>
-      <c r="R18" s="203"/>
-      <c r="S18" s="203"/>
-      <c r="T18" s="203"/>
-      <c r="U18" s="204"/>
+      <c r="O18" s="202"/>
+      <c r="P18" s="202"/>
+      <c r="Q18" s="202"/>
+      <c r="R18" s="202"/>
+      <c r="S18" s="202"/>
+      <c r="T18" s="202"/>
+      <c r="U18" s="203"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -5307,26 +5372,26 @@
       <c r="A20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="203"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
       <c r="E20" s="75"/>
       <c r="F20" s="75"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="203"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="202"/>
       <c r="L20" s="75"/>
-      <c r="M20" s="203"/>
+      <c r="M20" s="202"/>
       <c r="N20" s="75"/>
       <c r="O20" s="75"/>
       <c r="P20" s="75"/>
-      <c r="Q20" s="203"/>
+      <c r="Q20" s="202"/>
       <c r="R20" s="75"/>
-      <c r="S20" s="203"/>
+      <c r="S20" s="202"/>
       <c r="T20" s="75"/>
-      <c r="U20" s="204"/>
+      <c r="U20" s="203"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -5432,8 +5497,8 @@
       <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="205"/>
-      <c r="C25" s="205"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="204"/>
       <c r="D25" s="155"/>
       <c r="E25" s="155"/>
       <c r="F25" s="155"/>
@@ -5497,40 +5562,40 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178">
+      <c r="B1" s="177">
         <v>2023</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="178">
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="177">
         <f>B1-1</f>
         <v>2022</v>
       </c>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="178">
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="177">
         <f>F1-1</f>
         <v>2021</v>
       </c>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="178">
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="177">
         <f>J1-1</f>
         <v>2020</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="178">
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="177">
         <f>N1-1</f>
         <v>2019</v>
       </c>
-      <c r="S1" s="179"/>
-      <c r="T1" s="179"/>
-      <c r="U1" s="180"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="179"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -6136,40 +6201,40 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178">
+      <c r="B1" s="177">
         <v>2023</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="178">
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="177">
         <f>B1-1</f>
         <v>2022</v>
       </c>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="178">
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="177">
         <f>F1-1</f>
         <v>2021</v>
       </c>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="178">
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="177">
         <f>J1-1</f>
         <v>2020</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="178">
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="177">
         <f>N1-1</f>
         <v>2019</v>
       </c>
-      <c r="S1" s="179"/>
-      <c r="T1" s="179"/>
-      <c r="U1" s="180"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="179"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -9418,27 +9483,27 @@
       <c r="N1" s="81"/>
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
-      <c r="Q1" s="190" t="str">
+      <c r="Q1" s="189" t="str">
         <f>C9</f>
         <v>Revenue</v>
       </c>
-      <c r="R1" s="190" t="str">
+      <c r="R1" s="189" t="str">
         <f>E9</f>
         <v>Operating Income</v>
       </c>
-      <c r="S1" s="190" t="str">
+      <c r="S1" s="189" t="str">
         <f>G9</f>
         <v>Net Income</v>
       </c>
-      <c r="T1" s="190" t="str">
+      <c r="T1" s="189" t="str">
         <f>I9</f>
         <v>Shares Outstanding</v>
       </c>
-      <c r="U1" s="190" t="str">
+      <c r="U1" s="189" t="str">
         <f>K9</f>
         <v>Free Cash Flow</v>
       </c>
-      <c r="V1" s="190" t="str">
+      <c r="V1" s="189" t="str">
         <f>M9</f>
         <v>Revenue per Share</v>
       </c>
@@ -9542,12 +9607,12 @@
       </c>
       <c r="O2" s="81"/>
       <c r="P2" s="81"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="191"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
       <c r="W2" s="81"/>
       <c r="X2" s="81"/>
       <c r="Y2" s="81"/>
@@ -9648,12 +9713,12 @@
       </c>
       <c r="O3" s="81"/>
       <c r="P3" s="81"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="191"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
       <c r="W3" s="81"/>
       <c r="X3" s="81"/>
       <c r="Y3" s="81"/>
@@ -9754,12 +9819,12 @@
       </c>
       <c r="O4" s="81"/>
       <c r="P4" s="81"/>
-      <c r="Q4" s="191"/>
-      <c r="R4" s="191"/>
-      <c r="S4" s="191"/>
-      <c r="T4" s="191"/>
-      <c r="U4" s="191"/>
-      <c r="V4" s="191"/>
+      <c r="Q4" s="190"/>
+      <c r="R4" s="190"/>
+      <c r="S4" s="190"/>
+      <c r="T4" s="190"/>
+      <c r="U4" s="190"/>
+      <c r="V4" s="190"/>
       <c r="W4" s="81"/>
       <c r="X4" s="81"/>
       <c r="Y4" s="81"/>
@@ -9860,12 +9925,12 @@
       </c>
       <c r="O5" s="81"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="191"/>
-      <c r="R5" s="191"/>
-      <c r="S5" s="191"/>
-      <c r="T5" s="191"/>
-      <c r="U5" s="191"/>
-      <c r="V5" s="191"/>
+      <c r="Q5" s="190"/>
+      <c r="R5" s="190"/>
+      <c r="S5" s="190"/>
+      <c r="T5" s="190"/>
+      <c r="U5" s="190"/>
+      <c r="V5" s="190"/>
       <c r="W5" s="81"/>
       <c r="X5" s="81"/>
       <c r="Y5" s="81"/>
@@ -9928,21 +9993,21 @@
       <c r="N6" s="83"/>
       <c r="O6" s="83"/>
       <c r="P6" s="83"/>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="186"/>
-      <c r="S6" s="186"/>
-      <c r="T6" s="186"/>
-      <c r="U6" s="186"/>
-      <c r="V6" s="186"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="185"/>
+      <c r="S6" s="185"/>
+      <c r="T6" s="185"/>
+      <c r="U6" s="185"/>
+      <c r="V6" s="185"/>
       <c r="W6" s="83"/>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="185"/>
-      <c r="Z6" s="186"/>
-      <c r="AA6" s="193"/>
-      <c r="AB6" s="198"/>
-      <c r="AC6" s="186"/>
-      <c r="AD6" s="198"/>
-      <c r="AE6" s="186"/>
+      <c r="X6" s="192"/>
+      <c r="Y6" s="184"/>
+      <c r="Z6" s="185"/>
+      <c r="AA6" s="192"/>
+      <c r="AB6" s="197"/>
+      <c r="AC6" s="185"/>
+      <c r="AD6" s="197"/>
+      <c r="AE6" s="185"/>
       <c r="AF6" s="83"/>
       <c r="AG6" s="83"/>
       <c r="AH6" s="112"/>
@@ -9960,23 +10025,23 @@
       <c r="AT6" s="112"/>
       <c r="AU6" s="83"/>
       <c r="AV6" s="54"/>
-      <c r="AW6" s="201" t="e" vm="1">
+      <c r="AW6" s="200" t="e" vm="1">
         <f t="array" ref="AW6">_FV(AY6,"Ticker symbol",TRUE)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AX6" s="196"/>
-      <c r="AY6" s="187"/>
-      <c r="AZ6" s="188"/>
-      <c r="BA6" s="188"/>
-      <c r="BB6" s="199" t="e" vm="2">
+      <c r="AX6" s="195"/>
+      <c r="AY6" s="186"/>
+      <c r="AZ6" s="187"/>
+      <c r="BA6" s="187"/>
+      <c r="BB6" s="198" t="e" vm="2">
         <f t="array" ref="BB6">_FV(AY6,"Price")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BC6" s="195" t="e" vm="3">
+      <c r="BC6" s="194" t="e" vm="3">
         <f t="array" ref="BC6">_FV(AY6,"Market cap",TRUE)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BD6" s="196"/>
+      <c r="BD6" s="195"/>
       <c r="BE6" s="54"/>
       <c r="BF6" s="54"/>
       <c r="BG6" s="54"/>
@@ -10005,21 +10070,21 @@
       <c r="N7" s="157"/>
       <c r="O7" s="83"/>
       <c r="P7" s="83"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186"/>
-      <c r="S7" s="186"/>
-      <c r="T7" s="186"/>
-      <c r="U7" s="186"/>
-      <c r="V7" s="186"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
       <c r="W7" s="83"/>
-      <c r="X7" s="186"/>
-      <c r="Y7" s="186"/>
-      <c r="Z7" s="186"/>
-      <c r="AA7" s="186"/>
-      <c r="AB7" s="186"/>
-      <c r="AC7" s="186"/>
-      <c r="AD7" s="186"/>
-      <c r="AE7" s="186"/>
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185"/>
+      <c r="AE7" s="185"/>
       <c r="AF7" s="83"/>
       <c r="AG7" s="97"/>
       <c r="AH7" s="98"/>
@@ -10037,14 +10102,14 @@
       <c r="AT7" s="98"/>
       <c r="AU7" s="83"/>
       <c r="AV7" s="54"/>
-      <c r="AW7" s="202"/>
-      <c r="AX7" s="197"/>
-      <c r="AY7" s="189"/>
-      <c r="AZ7" s="189"/>
-      <c r="BA7" s="189"/>
-      <c r="BB7" s="189"/>
-      <c r="BC7" s="189"/>
-      <c r="BD7" s="197"/>
+      <c r="AW7" s="201"/>
+      <c r="AX7" s="196"/>
+      <c r="AY7" s="188"/>
+      <c r="AZ7" s="188"/>
+      <c r="BA7" s="188"/>
+      <c r="BB7" s="188"/>
+      <c r="BC7" s="188"/>
+      <c r="BD7" s="196"/>
       <c r="BE7" s="54"/>
       <c r="BF7" s="54"/>
       <c r="BG7" s="54"/>
@@ -10105,12 +10170,12 @@
       </c>
       <c r="O8" s="108"/>
       <c r="P8" s="108"/>
-      <c r="Q8" s="189"/>
-      <c r="R8" s="189"/>
-      <c r="S8" s="189"/>
-      <c r="T8" s="189"/>
-      <c r="U8" s="189"/>
-      <c r="V8" s="189"/>
+      <c r="Q8" s="188"/>
+      <c r="R8" s="188"/>
+      <c r="S8" s="188"/>
+      <c r="T8" s="188"/>
+      <c r="U8" s="188"/>
+      <c r="V8" s="188"/>
       <c r="W8" s="101"/>
       <c r="X8" s="101"/>
       <c r="Y8" s="113">
@@ -10514,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="BD10" s="57" t="e">
-        <f t="shared" ref="BD10:BD18" si="11">((((SUM(AD10:AE10)+SUM(AI31,AK31,AM31,AO31,AQ31,AS31,AU31))+(BA10/1000)))^0.5)*(1+AVERAGE($D$2,$F$2,$H$2,$J$2,$L$2))^2</f>
+        <f t="array" ref="BD10">((((SUM(ABS(AD10:AE10))+SUM(ABS(AI31),ABS(AK31),(AM31),ABS(AO31),ABS(AQ31),ABS(AS31),ABS(AU31)))+(ABS(BA10)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE10" s="91"/>
@@ -10572,27 +10637,27 @@
         <v>43617</v>
       </c>
       <c r="Q11" s="50">
-        <f t="shared" ref="Q11:Q49" si="12">Q10+D11</f>
+        <f t="shared" ref="Q11:Q49" si="11">Q10+D11</f>
         <v>0</v>
       </c>
       <c r="R11" s="87">
-        <f t="shared" ref="R11:R49" si="13">R10+F11</f>
+        <f t="shared" ref="R11:R49" si="12">R10+F11</f>
         <v>0</v>
       </c>
       <c r="S11" s="87">
-        <f t="shared" ref="S11:S49" si="14">S10+H11</f>
+        <f t="shared" ref="S11:S49" si="13">S10+H11</f>
         <v>0</v>
       </c>
       <c r="T11" s="87">
-        <f t="shared" ref="T11:T49" si="15">T10+J11</f>
+        <f t="shared" ref="T11:T49" si="14">T10+J11</f>
         <v>0</v>
       </c>
       <c r="U11" s="87">
-        <f t="shared" ref="U11:U49" si="16">U10+L11</f>
+        <f t="shared" ref="U11:U49" si="15">U10+L11</f>
         <v>0</v>
       </c>
       <c r="V11" s="88">
-        <f t="shared" ref="V11:V49" si="17">V10+N11</f>
+        <f t="shared" ref="V11:V49" si="16">V10+N11</f>
         <v>0</v>
       </c>
       <c r="W11" s="87"/>
@@ -10688,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="57" t="e">
-        <f t="shared" si="11"/>
+        <f t="array" ref="BD11">((((SUM(ABS(AD11:AE11))+SUM(ABS(AI32),ABS(AK32),ABS(AM32),ABS(AO32),ABS(AQ32),ABS(AS32),ABS(AU32)))+(ABS(BA11)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE11" s="91"/>
@@ -10746,27 +10811,27 @@
         <v>43709</v>
       </c>
       <c r="Q12" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="87">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R12" s="87">
+      <c r="S12" s="87">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S12" s="87">
+      <c r="T12" s="87">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T12" s="87">
+      <c r="U12" s="87">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U12" s="87">
+      <c r="V12" s="88">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="88">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W12" s="87"/>
@@ -10862,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="BD12" s="57" t="e">
-        <f t="shared" si="11"/>
+        <f t="array" ref="BD12">((((SUM(ABS(AD12:AE12))+SUM(ABS(AI33),ABS(AK33),ABS(AM33),ABS(AO33),ABS(AQ33),ABS(AS33),ABS(AU33)))+(ABS(BA12)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE12" s="91"/>
@@ -10889,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="103" t="e">
-        <f t="shared" ref="D13:D49" si="18">C13/C10</f>
+        <f t="shared" ref="D13:D49" si="17">C13/C10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E13" s="154">
@@ -10897,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="103" t="e">
-        <f t="shared" ref="F13:F49" si="19">E13/E10</f>
+        <f t="shared" ref="F13:F49" si="18">E13/E10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G13" s="135">
@@ -10905,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="103" t="e">
-        <f t="shared" ref="H13:H49" si="20">G13/G10</f>
+        <f t="shared" ref="H13:H49" si="19">G13/G10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I13" s="52">
@@ -10913,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="103" t="e">
-        <f t="shared" ref="J13:J49" si="21">I13/I10</f>
+        <f t="shared" ref="J13:J49" si="20">I13/I10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K13" s="135">
@@ -10921,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="103" t="e">
-        <f t="shared" ref="L13:L49" si="22">K13/K10</f>
+        <f t="shared" ref="L13:L49" si="21">K13/K10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M13" s="135">
@@ -10929,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="103" t="e">
-        <f t="shared" ref="N13:N49" si="23">M13/M10</f>
+        <f t="shared" ref="N13:N49" si="22">M13/M10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O13" s="134"/>
@@ -10938,27 +11003,27 @@
         <v>43800</v>
       </c>
       <c r="Q13" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R13" s="87" t="e">
+      <c r="S13" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S13" s="87" t="e">
+      <c r="T13" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T13" s="87" t="e">
+      <c r="U13" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="87" t="e">
+      <c r="V13" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W13" s="87"/>
@@ -10971,7 +11036,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="103" t="e">
-        <f t="shared" ref="Z13:Z49" si="24">Y13/Y10</f>
+        <f t="shared" ref="Z13:Z49" si="23">Y13/Y10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA13" s="87"/>
@@ -10998,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="103" t="e">
-        <f t="shared" ref="AI13:AI30" si="25">AH13/AH10</f>
+        <f t="shared" ref="AI13:AI30" si="24">AH13/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ13" s="110">
@@ -11006,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="103" t="e">
-        <f t="shared" ref="AK13:AK30" si="26">AJ13/AJ10</f>
+        <f t="shared" ref="AK13:AK30" si="25">AJ13/AJ10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL13" s="110">
@@ -11014,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="AM13" s="103" t="e">
-        <f t="shared" ref="AM13:AM30" si="27">AL13/AL10</f>
+        <f t="shared" ref="AM13:AM30" si="26">AL13/AL10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN13" s="110">
@@ -11030,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="103" t="e">
-        <f t="shared" ref="AQ13:AQ30" si="28">AP13/AP10</f>
+        <f t="shared" ref="AQ13:AQ30" si="27">AP13/AP10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR13" s="110">
@@ -11038,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="103" t="e">
-        <f t="shared" ref="AS13:AS30" si="29">AR13/AR10</f>
+        <f t="shared" ref="AS13:AS30" si="28">AR13/AR10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT13" s="110">
@@ -11046,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="103" t="e">
-        <f t="shared" ref="AU13:AU30" si="30">AT13/AT10</f>
+        <f t="shared" ref="AU13:AU30" si="29">AT13/AT10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AV13" s="91"/>
@@ -11078,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="BD13" s="57" t="e">
-        <f t="shared" si="11"/>
+        <f t="array" ref="BD13">((((SUM(ABS(AD13:AE13))+SUM(ABS(AI34),ABS(AK34),ABS(AM34),ABS(AO34),ABS(AQ34),ABS(AS34),ABS(AU34)))+(ABS(BA13)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE13" s="91"/>
@@ -11105,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E14" s="154">
@@ -11113,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G14" s="135">
@@ -11121,7 +11186,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I14" s="52">
@@ -11129,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K14" s="135">
@@ -11137,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M14" s="135">
@@ -11145,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O14" s="134"/>
@@ -11154,27 +11219,27 @@
         <v>43891</v>
       </c>
       <c r="Q14" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R14" s="87" t="e">
+      <c r="S14" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S14" s="87" t="e">
+      <c r="T14" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T14" s="87" t="e">
+      <c r="U14" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U14" s="87" t="e">
+      <c r="V14" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W14" s="87"/>
@@ -11187,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA14" s="87"/>
@@ -11214,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ14" s="110">
@@ -11222,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL14" s="110">
@@ -11230,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="AM14" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN14" s="110">
@@ -11246,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" s="110">
@@ -11254,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT14" s="110">
@@ -11262,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="AU14" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV14" s="91"/>
@@ -11294,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="BD14" s="57" t="e">
-        <f t="shared" si="11"/>
+        <f t="array" ref="BD14">((((SUM(ABS(AD14:AE14))+SUM(ABS(AI35),ABS(AK35),ABS(AM35),ABS(AO35),ABS(AQ35),ABS(AS35),ABS(AU35)))+(ABS(BA14)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE14" s="91"/>
@@ -11321,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E15" s="154">
@@ -11329,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G15" s="135">
@@ -11337,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I15" s="52">
@@ -11345,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K15" s="135">
@@ -11353,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M15" s="135">
@@ -11361,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O15" s="134"/>
@@ -11370,27 +11435,27 @@
         <v>43983</v>
       </c>
       <c r="Q15" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R15" s="87" t="e">
+      <c r="S15" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S15" s="87" t="e">
+      <c r="T15" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="87" t="e">
+      <c r="U15" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="87" t="e">
+      <c r="V15" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V15" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W15" s="87"/>
@@ -11403,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA15" s="87"/>
@@ -11430,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ15" s="110">
@@ -11438,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL15" s="110">
@@ -11446,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="AM15" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN15" s="110">
@@ -11462,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR15" s="110">
@@ -11470,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT15" s="110">
@@ -11478,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV15" s="91"/>
@@ -11510,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="57" t="e">
-        <f t="shared" si="11"/>
+        <f t="array" ref="BD15">((((SUM(ABS(AD15:AE15))+SUM(ABS(AI36),ABS(AK36),ABS(AM36),ABS(AO36),ABS(AQ36),ABS(AS36),ABS(AU36)))+(ABS(BA15)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE15" s="91"/>
@@ -11537,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E16" s="154">
@@ -11545,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G16" s="135">
@@ -11553,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I16" s="52">
@@ -11561,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K16" s="135">
@@ -11569,7 +11634,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="135">
@@ -11577,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O16" s="134"/>
@@ -11586,27 +11651,27 @@
         <v>44075</v>
       </c>
       <c r="Q16" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R16" s="87" t="e">
+      <c r="S16" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S16" s="87" t="e">
+      <c r="T16" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T16" s="87" t="e">
+      <c r="U16" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U16" s="87" t="e">
+      <c r="V16" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W16" s="87"/>
@@ -11619,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA16" s="87"/>
@@ -11646,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ16" s="110">
@@ -11654,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL16" s="110">
@@ -11662,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN16" s="110">
@@ -11678,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR16" s="110">
@@ -11686,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT16" s="110">
@@ -11694,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="AU16" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV16" s="91"/>
@@ -11726,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="BD16" s="57" t="e">
-        <f t="shared" si="11"/>
+        <f t="array" ref="BD16">((((SUM(ABS(AD16:AE16))+SUM(ABS(AI37),ABS(AK37),ABS(AM37),ABS(AO37),ABS(AQ37),ABS(AS37),ABS(AU37)))+(ABS(BA16)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE16" s="91"/>
@@ -11753,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="154">
@@ -11761,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G17" s="135">
@@ -11769,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I17" s="52">
@@ -11777,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K17" s="135">
@@ -11785,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M17" s="135">
@@ -11793,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O17" s="134"/>
@@ -11802,27 +11867,27 @@
         <v>44166</v>
       </c>
       <c r="Q17" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R17" s="87" t="e">
+      <c r="S17" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S17" s="87" t="e">
+      <c r="T17" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T17" s="87" t="e">
+      <c r="U17" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U17" s="87" t="e">
+      <c r="V17" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V17" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W17" s="87"/>
@@ -11835,7 +11900,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA17" s="87"/>
@@ -11862,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ17" s="110">
@@ -11870,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL17" s="110">
@@ -11878,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="AM17" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN17" s="110">
@@ -11894,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR17" s="110">
@@ -11902,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT17" s="110">
@@ -11910,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV17" s="91"/>
@@ -11942,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="BD17" s="57" t="e">
-        <f t="shared" si="11"/>
+        <f t="array" ref="BD17">((((SUM(ABS(AD17:AE17))+SUM(ABS(AI38),ABS(AK38),ABS(AM38),ABS(AO38),ABS(AQ38),ABS(AS38),ABS(AU38)))+(ABS(BA17)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE17" s="91"/>
@@ -11969,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E18" s="154">
@@ -11977,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="135">
@@ -11985,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I18" s="52">
@@ -11993,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K18" s="135">
@@ -12001,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M18" s="135">
@@ -12009,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O18" s="134"/>
@@ -12018,27 +12083,27 @@
         <v>44256</v>
       </c>
       <c r="Q18" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R18" s="87" t="e">
+      <c r="S18" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S18" s="87" t="e">
+      <c r="T18" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T18" s="87" t="e">
+      <c r="U18" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U18" s="87" t="e">
+      <c r="V18" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V18" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W18" s="87"/>
@@ -12051,7 +12116,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA18" s="87"/>
@@ -12078,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ18" s="110">
@@ -12086,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL18" s="110">
@@ -12094,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="AM18" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN18" s="110">
@@ -12110,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR18" s="110">
@@ -12118,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT18" s="110">
@@ -12126,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="AU18" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV18" s="91"/>
@@ -12158,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="BD18" s="57" t="e">
-        <f t="shared" si="11"/>
+        <f t="array" ref="BD18">((((SUM(ABS(AD18:AE18))+SUM(ABS(AI39),ABS(AK39),ABS(AM39),ABS(AO39),ABS(AQ39),ABS(AS39),ABS(AU39)))+(ABS(BA18)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE18" s="91"/>
@@ -12185,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E19" s="154">
@@ -12193,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G19" s="135">
@@ -12201,7 +12266,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I19" s="52">
@@ -12209,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K19" s="135">
@@ -12217,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M19" s="135">
@@ -12225,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O19" s="134"/>
@@ -12234,27 +12299,27 @@
         <v>44348</v>
       </c>
       <c r="Q19" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R19" s="87" t="e">
+      <c r="S19" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="87" t="e">
+      <c r="T19" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="87" t="e">
+      <c r="U19" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U19" s="87" t="e">
+      <c r="V19" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W19" s="87"/>
@@ -12267,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA19" s="87"/>
@@ -12294,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ19" s="110">
@@ -12302,7 +12367,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL19" s="110">
@@ -12310,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="AM19" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN19" s="110">
@@ -12326,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR19" s="110">
@@ -12334,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT19" s="110">
@@ -12342,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV19" s="91"/>
@@ -12374,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="BD19" s="57" t="e">
-        <f t="shared" ref="BD19:BD30" si="31">((((ABS(SUM(AD19:AE19))+SUM(AI40,AK40,AM40,AO40,AQ40,AS40,AU40))+(BA19/1000)))^0.5)*(1+AVERAGE($D$2,$F$2,$H$2,$J$2,$L$2))^2</f>
+        <f t="array" ref="BD19">((((SUM(ABS(AD19:AE19))+SUM(ABS(AI40),ABS(AK40),ABS(AM40),ABS(AO40),ABS(AQ40),ABS(AS40),ABS(AU40)))+(ABS(BA19)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE19" s="91"/>
@@ -12401,7 +12466,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E20" s="154">
@@ -12409,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G20" s="135">
@@ -12417,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I20" s="52">
@@ -12425,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K20" s="135">
@@ -12433,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M20" s="135">
@@ -12441,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O20" s="134"/>
@@ -12450,27 +12515,27 @@
         <v>44440</v>
       </c>
       <c r="Q20" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R20" s="87" t="e">
+      <c r="S20" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S20" s="87" t="e">
+      <c r="T20" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T20" s="87" t="e">
+      <c r="U20" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U20" s="87" t="e">
+      <c r="V20" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V20" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W20" s="87"/>
@@ -12483,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA20" s="87"/>
@@ -12510,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ20" s="110">
@@ -12518,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL20" s="110">
@@ -12526,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="AM20" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN20" s="110">
@@ -12542,7 +12607,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR20" s="110">
@@ -12550,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT20" s="110">
@@ -12558,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV20" s="91"/>
@@ -12590,7 +12655,7 @@
         <v>0</v>
       </c>
       <c r="BD20" s="57" t="e">
-        <f t="shared" si="31"/>
+        <f t="array" ref="BD20">((((SUM(ABS(AD20:AE20))+SUM(ABS(AI41),ABS(AK41),ABS(AM41),ABS(AO41),ABS(AQ41),ABS(AS41),ABS(AU41)))+(ABS(BA20)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE20" s="91"/>
@@ -12617,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="154">
@@ -12625,7 +12690,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G21" s="135">
@@ -12633,7 +12698,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I21" s="52">
@@ -12641,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="135">
@@ -12649,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="135">
@@ -12657,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="134"/>
@@ -12666,27 +12731,27 @@
         <v>44531</v>
       </c>
       <c r="Q21" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R21" s="87" t="e">
+      <c r="S21" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S21" s="87" t="e">
+      <c r="T21" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T21" s="87" t="e">
+      <c r="U21" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U21" s="87" t="e">
+      <c r="V21" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W21" s="87"/>
@@ -12699,7 +12764,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA21" s="87"/>
@@ -12726,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ21" s="110">
@@ -12734,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL21" s="110">
@@ -12742,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN21" s="110">
@@ -12758,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR21" s="110">
@@ -12766,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT21" s="110">
@@ -12774,7 +12839,7 @@
         <v>0</v>
       </c>
       <c r="AU21" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV21" s="91"/>
@@ -12806,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="57" t="e">
-        <f t="shared" si="31"/>
+        <f t="array" ref="BD21">((((SUM(ABS(AD21:AE21))+SUM(ABS(AI42),ABS(AK42),ABS(AM42),ABS(AO42),ABS(AQ42),ABS(AS42),ABS(AU42)))+(ABS(BA21)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE21" s="91"/>
@@ -12833,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="154">
@@ -12841,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G22" s="135">
@@ -12849,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I22" s="52">
@@ -12857,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K22" s="135">
@@ -12865,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="135">
@@ -12873,7 +12938,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="134"/>
@@ -12882,27 +12947,27 @@
         <v>44621</v>
       </c>
       <c r="Q22" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R22" s="87" t="e">
+      <c r="S22" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S22" s="87" t="e">
+      <c r="T22" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T22" s="87" t="e">
+      <c r="U22" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U22" s="87" t="e">
+      <c r="V22" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W22" s="87"/>
@@ -12915,7 +12980,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA22" s="87"/>
@@ -12942,7 +13007,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ22" s="110">
@@ -12950,7 +13015,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL22" s="110">
@@ -12958,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN22" s="110">
@@ -12974,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR22" s="110">
@@ -12982,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT22" s="110">
@@ -12990,7 +13055,7 @@
         <v>0</v>
       </c>
       <c r="AU22" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV22" s="91"/>
@@ -13022,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="BD22" s="57" t="e">
-        <f t="shared" si="31"/>
+        <f t="array" ref="BD22">((((SUM(ABS(AD22:AE22))+SUM(ABS(AI43),ABS(AK43),ABS(AM43),ABS(AO43),ABS(AQ43),ABS(AS43),ABS(AU43)))+(ABS(BA22)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE22" s="91"/>
@@ -13049,7 +13114,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="154">
@@ -13057,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G23" s="135">
@@ -13065,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="52">
@@ -13073,7 +13138,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K23" s="135">
@@ -13081,7 +13146,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="135">
@@ -13089,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="134"/>
@@ -13098,27 +13163,27 @@
         <v>44713</v>
       </c>
       <c r="Q23" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R23" s="87" t="e">
+      <c r="S23" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S23" s="87" t="e">
+      <c r="T23" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T23" s="87" t="e">
+      <c r="U23" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U23" s="87" t="e">
+      <c r="V23" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V23" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W23" s="87"/>
@@ -13131,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA23" s="87"/>
@@ -13158,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ23" s="110">
@@ -13166,7 +13231,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL23" s="110">
@@ -13174,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN23" s="110">
@@ -13190,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR23" s="110">
@@ -13198,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT23" s="110">
@@ -13206,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV23" s="91"/>
@@ -13238,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="BD23" s="57" t="e">
-        <f t="shared" si="31"/>
+        <f t="array" ref="BD23">((((SUM(ABS(AD23:AE23))+SUM(ABS(AI44),ABS(AK44),ABS(AM44),ABS(AO44),ABS(AQ44),ABS(AS44),ABS(AU44)))+(ABS(BA23)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE23" s="91"/>
@@ -13265,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="154">
@@ -13273,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="135">
@@ -13281,7 +13346,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="52">
@@ -13289,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="135">
@@ -13297,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="135">
@@ -13305,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="134"/>
@@ -13314,27 +13379,27 @@
         <v>44805</v>
       </c>
       <c r="Q24" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R24" s="87" t="e">
+      <c r="S24" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S24" s="87" t="e">
+      <c r="T24" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T24" s="87" t="e">
+      <c r="U24" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U24" s="87" t="e">
+      <c r="V24" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W24" s="87"/>
@@ -13347,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA24" s="87"/>
@@ -13374,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ24" s="110">
@@ -13382,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL24" s="110">
@@ -13390,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN24" s="110">
@@ -13406,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR24" s="110">
@@ -13414,7 +13479,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT24" s="110">
@@ -13422,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="AU24" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV24" s="91"/>
@@ -13454,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="BD24" s="57" t="e">
-        <f t="shared" si="31"/>
+        <f t="array" ref="BD24">((((SUM(ABS(AD24:AE24))+SUM(ABS(AI45),ABS(AK45),ABS(AM45),ABS(AO45),ABS(AQ45),ABS(AS45),ABS(AU45)))+(ABS(BA24)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE24" s="91"/>
@@ -13481,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="154">
@@ -13489,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G25" s="135">
@@ -13497,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="52">
@@ -13505,7 +13570,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="135">
@@ -13513,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="135">
@@ -13521,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="134"/>
@@ -13530,27 +13595,27 @@
         <v>44896</v>
       </c>
       <c r="Q25" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R25" s="87" t="e">
+      <c r="S25" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S25" s="87" t="e">
+      <c r="T25" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T25" s="87" t="e">
+      <c r="U25" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U25" s="87" t="e">
+      <c r="V25" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W25" s="87"/>
@@ -13563,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA25" s="87"/>
@@ -13590,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ25" s="110">
@@ -13598,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL25" s="110">
@@ -13606,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="AM25" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN25" s="110">
@@ -13622,7 +13687,7 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR25" s="110">
@@ -13630,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT25" s="110">
@@ -13638,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="AU25" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV25" s="91"/>
@@ -13670,7 +13735,7 @@
         <v>0</v>
       </c>
       <c r="BD25" s="57" t="e">
-        <f t="shared" si="31"/>
+        <f t="array" ref="BD25">((((SUM(ABS(AD25:AE25))+SUM(ABS(AI46),ABS(AK46),ABS(AM46),ABS(AO46),ABS(AQ46),ABS(AS46),ABS(AU46)))+(ABS(BA25)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE25" s="91"/>
@@ -13697,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="154">
@@ -13705,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="135">
@@ -13713,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="52">
@@ -13721,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="135">
@@ -13729,7 +13794,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="135">
@@ -13737,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="134"/>
@@ -13746,27 +13811,27 @@
         <v>44986</v>
       </c>
       <c r="Q26" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R26" s="87" t="e">
+      <c r="S26" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S26" s="87" t="e">
+      <c r="T26" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T26" s="87" t="e">
+      <c r="U26" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U26" s="87" t="e">
+      <c r="V26" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V26" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W26" s="87"/>
@@ -13779,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="Z26" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA26" s="87"/>
@@ -13806,7 +13871,7 @@
         <v>0</v>
       </c>
       <c r="AI26" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ26" s="110">
@@ -13814,7 +13879,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL26" s="110">
@@ -13822,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN26" s="110">
@@ -13838,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR26" s="110">
@@ -13846,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT26" s="110">
@@ -13854,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV26" s="91"/>
@@ -13886,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="57" t="e">
-        <f t="shared" si="31"/>
+        <f t="array" ref="BD26">((((SUM(ABS(AD26:AE26))+SUM(ABS(AI47),ABS(AK47),ABS(AM47),ABS(AO47),ABS(AQ47),ABS(AS47),ABS(AU47)))+(ABS(BA26)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE26" s="91"/>
@@ -13913,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="154">
@@ -13921,7 +13986,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="135">
@@ -13929,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="52">
@@ -13937,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="135">
@@ -13945,7 +14010,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="135">
@@ -13953,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="134"/>
@@ -13962,27 +14027,27 @@
         <v>45078</v>
       </c>
       <c r="Q27" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R27" s="87" t="e">
+      <c r="S27" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S27" s="87" t="e">
+      <c r="T27" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T27" s="87" t="e">
+      <c r="U27" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="87" t="e">
+      <c r="V27" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W27" s="87"/>
@@ -13995,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA27" s="87"/>
@@ -14022,7 +14087,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ27" s="110">
@@ -14030,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL27" s="110">
@@ -14038,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="AM27" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN27" s="110">
@@ -14054,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR27" s="110">
@@ -14062,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT27" s="110">
@@ -14070,7 +14135,7 @@
         <v>0</v>
       </c>
       <c r="AU27" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV27" s="91"/>
@@ -14102,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="BD27" s="57" t="e">
-        <f t="shared" si="31"/>
+        <f t="array" ref="BD27">((((SUM(ABS(AD27:AE27))+SUM(ABS(AI48),ABS(AK48),ABS(AM48),ABS(AO48),ABS(AQ48),ABS(AS48),ABS(AU48)))+(ABS(BA27)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE27" s="91"/>
@@ -14129,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="154">
@@ -14137,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="135">
@@ -14145,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="52">
@@ -14153,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="135">
@@ -14161,7 +14226,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="135">
@@ -14169,7 +14234,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="134"/>
@@ -14178,27 +14243,27 @@
         <v>45170</v>
       </c>
       <c r="Q28" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R28" s="87" t="e">
+      <c r="S28" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S28" s="87" t="e">
+      <c r="T28" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T28" s="87" t="e">
+      <c r="U28" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U28" s="87" t="e">
+      <c r="V28" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W28" s="87"/>
@@ -14211,7 +14276,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA28" s="87"/>
@@ -14238,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ28" s="110">
@@ -14246,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL28" s="110">
@@ -14254,7 +14319,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN28" s="110">
@@ -14270,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR28" s="110">
@@ -14278,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT28" s="110">
@@ -14286,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV28" s="91"/>
@@ -14318,7 +14383,7 @@
         <v>0</v>
       </c>
       <c r="BD28" s="57" t="e">
-        <f t="shared" si="31"/>
+        <f t="array" ref="BD28">((((SUM(ABS(AD28:AE28))+SUM(ABS(AI49),ABS(AK49),ABS(AM49),ABS(AO49),ABS(AQ49),ABS(AS49),ABS(AU49)))+(ABS(BA28)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE28" s="91"/>
@@ -14345,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="103" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="154">
@@ -14353,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="103" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="135">
@@ -14361,7 +14426,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="103" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="52">
@@ -14369,7 +14434,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="103" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="135">
@@ -14377,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="103" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="135">
@@ -14385,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="103" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="134"/>
@@ -14394,27 +14459,27 @@
         <v>45261</v>
       </c>
       <c r="Q29" s="50" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="87" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R29" s="87" t="e">
+      <c r="S29" s="87" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S29" s="87" t="e">
+      <c r="T29" s="87" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T29" s="87" t="e">
+      <c r="U29" s="87" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U29" s="87" t="e">
+      <c r="V29" s="88" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="88" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W29" s="87"/>
@@ -14427,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="103" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA29" s="87"/>
@@ -14454,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="103" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ29" s="110">
@@ -14462,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="103" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL29" s="110">
@@ -14470,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="103" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN29" s="110">
@@ -14486,7 +14551,7 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="103" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR29" s="110">
@@ -14494,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="103" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT29" s="110">
@@ -14502,7 +14567,7 @@
         <v>0</v>
       </c>
       <c r="AU29" s="103" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV29" s="91"/>
@@ -14534,7 +14599,7 @@
         <v>0</v>
       </c>
       <c r="BD29" s="57" t="e">
-        <f t="shared" si="31"/>
+        <f t="array" ref="BD29">((((SUM(ABS(AD29:AE29))+SUM(ABS(AI50),ABS(AK50),ABS(AM50),ABS(AO50),ABS(AQ50),ABS(AS50),ABS(AU50)))+(ABS(BA29)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE29" s="91"/>
@@ -14556,51 +14621,51 @@
         <v>45382</v>
       </c>
       <c r="C30" s="136" t="e">
-        <f t="shared" ref="C30:C49" si="32">(C26+$C$8)*(1+(D13/10))</f>
+        <f>(C26+$C$8)*(1+(D13/10))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D30" s="145" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="136" t="e">
+        <f t="shared" ref="E30:E49" si="30">(E26+$E$8)*(1+(F13/10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="145" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="136" t="e">
-        <f t="shared" ref="E30:E49" si="33">(E26+$E$8)*(1+(F13/10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="145" t="e">
+      <c r="G30" s="136" t="e">
+        <f t="shared" ref="G30:G49" si="31">(G26+$G$8)*(1+(H13/10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="145" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="136" t="e">
-        <f t="shared" ref="G30:G49" si="34">(G26+$G$8)*(1+(H13/10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="145" t="e">
+      <c r="I30" s="137" t="e">
+        <f t="shared" ref="I30:I49" si="32">(I26+$I$8)*(J13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="145" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="137" t="e">
-        <f t="shared" ref="I30:I49" si="35">(I26+$I$8)*(J13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="145" t="e">
+      <c r="K30" s="136" t="e">
+        <f t="shared" ref="K30:K49" si="33">(K26+$K$8)*(1+(L13/10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="145" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="136" t="e">
-        <f t="shared" ref="K30:K49" si="36">(K26+$K$8)*(1+(L13/10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="145" t="e">
+      <c r="M30" s="136" t="e">
+        <f t="shared" ref="M30:M49" si="34">C30/I30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="145" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="136" t="e">
-        <f t="shared" ref="M30:M49" si="37">C30/I30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="145" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="124"/>
@@ -14609,27 +14674,27 @@
         <v>45352</v>
       </c>
       <c r="Q30" s="128" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="125" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="125" t="e">
+      <c r="S30" s="125" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="125" t="e">
+      <c r="T30" s="125" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T30" s="125" t="e">
+      <c r="U30" s="125" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U30" s="125" t="e">
+      <c r="V30" s="127" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V30" s="127" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W30" s="125"/>
@@ -14642,7 +14707,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z30" s="145" t="e" vm="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA30" s="173"/>
@@ -14665,31 +14730,31 @@
         <v>CURRENT</v>
       </c>
       <c r="AH30" s="136" t="e">
-        <f t="shared" ref="AH30:AH49" si="38">(AH26+$AH$8)*(1+(AI13/10))</f>
+        <f t="shared" ref="AH30:AH49" si="35">(AH26+$AH$8)*(1+(AI13/10))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI30" s="145" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ30" s="136" t="e">
+        <f t="shared" ref="AJ30:AJ49" si="36">(AJ26+$AJ$8)*(1+(AK13/10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK30" s="145" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ30" s="136" t="e">
-        <f t="shared" ref="AJ30:AJ49" si="39">(AJ26+$AJ$8)*(1+(AK13/10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK30" s="145" t="e">
+      <c r="AL30" s="136" t="e">
+        <f t="shared" ref="AL30:AL49" si="37">(AL26+$AL$8)*(1+(AM13/10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM30" s="145" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL30" s="136" t="e">
-        <f t="shared" ref="AL30:AL49" si="40">(AL26+$AL$8)*(1+(AM13/10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM30" s="145" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AN30" s="136">
-        <f t="shared" ref="AN30:AN49" si="41">(AN26+$AN$8)*(1+(AO13/10))</f>
+        <f t="shared" ref="AN30:AN49" si="38">(AN26+$AN$8)*(1+(AO13/10))</f>
         <v>0</v>
       </c>
       <c r="AO30" s="145">
@@ -14697,27 +14762,27 @@
         <v>0</v>
       </c>
       <c r="AP30" s="136" t="e">
-        <f t="shared" ref="AP30:AP49" si="42">(AP26+$AP$8)*(1+(AQ13/10))</f>
+        <f t="shared" ref="AP30:AP49" si="39">(AP26+$AP$8)*(1+(AQ13/10))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ30" s="145" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR30" s="136" t="e">
+        <f t="shared" ref="AR30:AR49" si="40">(AR26+$AR$8)*(1+(AS13/10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS30" s="145" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR30" s="136" t="e">
-        <f t="shared" ref="AR30:AR49" si="43">(AR26+$AR$8)*(1+(AS13/10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS30" s="145" t="e">
+      <c r="AT30" s="136" t="e">
+        <f t="shared" ref="AT30:AT49" si="41">(AT26+$AT$8)*(1+(AU13/10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU30" s="145" t="e">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT30" s="136" t="e">
-        <f t="shared" ref="AT30:AT49" si="44">(AT26+$AT$8)*(1+(AU13/10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU30" s="145" t="e">
-        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV30" s="126"/>
@@ -14749,7 +14814,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BD30" s="143" t="e">
-        <f t="shared" si="31"/>
+        <f t="array" ref="BD30">((((SUM(ABS(AD30:AE30))+SUM(ABS(AI51),ABS(AK51),ABS(AM51),ABS(AO51),ABS(AQ51),ABS(AS51),ABS(AU51)))+(ABS(BA30)/1000)))^0.5)*(1+AVERAGE(ABS($D$2),ABS($F$2),ABS($H$2),ABS($J$2),ABS($L$2)))^2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE30" s="107"/>
@@ -14771,51 +14836,51 @@
         <v>122</v>
       </c>
       <c r="C31" s="163" t="e">
+        <f>(C27+$C$8)*(1+(D14/10))^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="163" t="e">
+      <c r="J31" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="163" t="e">
+      <c r="L31" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="166" t="e">
+      <c r="N31" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="116"/>
@@ -14824,27 +14889,27 @@
         <v>45444</v>
       </c>
       <c r="Q31" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R31" s="105" t="e">
+      <c r="S31" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S31" s="105" t="e">
+      <c r="T31" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T31" s="105" t="e">
+      <c r="U31" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U31" s="105" t="e">
+      <c r="V31" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V31" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W31" s="105"/>
@@ -14853,28 +14918,28 @@
         <v>6/31/2024</v>
       </c>
       <c r="Y31" s="163" t="e">
-        <f t="shared" ref="Y31:Y49" si="45">((Y27+$Y$8)*(1+(Z14/100)^0.5)+(AH31^0.5+AJ31^0.5+AN31^0.5+AP31^0.5+AR31^0.5+AT31^0.5-ABS(AL31)^0.5)+(Y11-Y10))+(AVERAGE(Q10:V10)*1000)</f>
+        <f t="array" ref="Y31">((ABS(Y27)+ABS($Y$8))*(1+(ABS(Z14)/100)^0.5)+(ABS(AH31)^0.5+ABS(AJ31)^0.5+ABS(AN31)^0.5+ABS(AP31)^0.5+ABS(AR31)^0.5+ABS(AT31)^0.5-ABS(AL31)^0.5)+(ABS(Y11)-ABS(Y10))+ABS(AVERAGE(AD10:AE10)*100))^(1+(AVERAGE(Q10:V10/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z31" s="166" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA31" s="116"/>
       <c r="AB31" s="118" t="e">
-        <f t="shared" ref="AB31:AB49" si="46">(Y31/I31)+AE10</f>
+        <f t="shared" ref="AB31:AB49" si="42">(Y31/I31)+AE10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC31" s="105"/>
-      <c r="AD31" s="181"/>
-      <c r="AE31" s="182"/>
+      <c r="AD31" s="180"/>
+      <c r="AE31" s="181"/>
       <c r="AF31" s="105"/>
       <c r="AG31" s="114" t="str">
-        <f t="shared" ref="AG31:AG49" si="47">B31</f>
+        <f t="shared" ref="AG31:AG49" si="43">B31</f>
         <v>6/31/2024</v>
       </c>
       <c r="AH31" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI31" s="171" t="e">
@@ -14882,7 +14947,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ31" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK31" s="171" t="e">
@@ -14890,7 +14955,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL31" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM31" s="171" t="e">
@@ -14898,7 +14963,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN31" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO31" s="171">
@@ -14906,7 +14971,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ31" s="171" t="e">
@@ -14914,7 +14979,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR31" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS31" s="171" t="e">
@@ -14922,7 +14987,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT31" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU31" s="171" t="e">
@@ -14938,11 +15003,11 @@
       <c r="AZ31" s="118"/>
       <c r="BA31" s="119"/>
       <c r="BB31" s="115" t="e">
-        <f t="shared" ref="BB31:BB49" si="48">BC31*I31</f>
+        <f t="shared" ref="BB31:BB49" si="44">BC31*I31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BC31" s="115" t="e">
-        <f t="shared" ref="BC31:BC49" si="49">AB31-BD10</f>
+        <f t="array" ref="BC31">AB31-(BD10^(1+(AVERAGE(Q10:V10/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD31" s="116"/>
@@ -14965,51 +15030,51 @@
         <v>124</v>
       </c>
       <c r="C32" s="163" t="e">
+        <f t="shared" ref="C32:C49" si="45">(C28+$C$8)*(1+(D15/10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D32" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="163" t="e">
+      <c r="J32" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="163" t="e">
+      <c r="L32" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="166" t="e">
+      <c r="N32" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="116"/>
@@ -15018,27 +15083,27 @@
         <v>45536</v>
       </c>
       <c r="Q32" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R32" s="105" t="e">
+      <c r="S32" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S32" s="105" t="e">
+      <c r="T32" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T32" s="105" t="e">
+      <c r="U32" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U32" s="105" t="e">
+      <c r="V32" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V32" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W32" s="105"/>
@@ -15047,28 +15112,28 @@
         <v>9/31/2024</v>
       </c>
       <c r="Y32" s="163" t="e">
-        <f t="shared" si="45"/>
+        <f t="array" ref="Y32">((ABS(Y28)+ABS($Y$8))*(1+(ABS(Z15)/100)^0.5)+(ABS(AH32)^0.5+ABS(AJ32)^0.5+ABS(AN32)^0.5+ABS(AP32)^0.5+ABS(AR32)^0.5+ABS(AT32)^0.5-ABS(AL32)^0.5)+(ABS(Y12)-ABS(Y11))+ABS(AVERAGE(AD11:AE11)*100))^(1+(AVERAGE(Q11:V11/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z32" s="166" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA32" s="116"/>
       <c r="AB32" s="118" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC32" s="105"/>
-      <c r="AD32" s="181"/>
-      <c r="AE32" s="182"/>
+      <c r="AD32" s="180"/>
+      <c r="AE32" s="181"/>
       <c r="AF32" s="105"/>
       <c r="AG32" s="114" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>9/31/2024</v>
       </c>
       <c r="AH32" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI32" s="171" t="e">
@@ -15076,7 +15141,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ32" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK32" s="171" t="e">
@@ -15084,7 +15149,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL32" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM32" s="171" t="e">
@@ -15092,7 +15157,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN32" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO32" s="171">
@@ -15100,7 +15165,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ32" s="171" t="e">
@@ -15108,7 +15173,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR32" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS32" s="171" t="e">
@@ -15116,7 +15181,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT32" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU32" s="171" t="e">
@@ -15132,11 +15197,11 @@
       <c r="AZ32" s="118"/>
       <c r="BA32" s="119"/>
       <c r="BB32" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC32" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC32">AB32-(BD11^(1+(AVERAGE(Q11:V11/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD32" s="116"/>
@@ -15159,51 +15224,51 @@
         <v>45657</v>
       </c>
       <c r="C33" s="165" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="167" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="165" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="167" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="165" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="167" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="169" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D33" s="167" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="165" t="e">
+      <c r="J33" s="167" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="165" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="167" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="165" t="e">
+      <c r="L33" s="167" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="165" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="167" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="169" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="167" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="165" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L33" s="167" t="e">
+      <c r="N33" s="167" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="165" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="167" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="130"/>
@@ -15212,27 +15277,27 @@
         <v>45627</v>
       </c>
       <c r="Q33" s="132" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" s="132" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R33" s="132" t="e">
+      <c r="S33" s="132" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S33" s="132" t="e">
+      <c r="T33" s="132" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T33" s="132" t="e">
+      <c r="U33" s="132" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U33" s="132" t="e">
+      <c r="V33" s="132" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V33" s="132" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W33" s="132"/>
@@ -15240,29 +15305,29 @@
         <f t="shared" si="5"/>
         <v>45657</v>
       </c>
-      <c r="Y33" s="163" t="e">
-        <f t="shared" si="45"/>
+      <c r="Y33" s="165" t="e">
+        <f t="array" ref="Y33">((ABS(Y29)+ABS($Y$8))*(1+(ABS(Z16)/100)^0.5)+(ABS(AH33)^0.5+ABS(AJ33)^0.5+ABS(AN33)^0.5+ABS(AP33)^0.5+ABS(AR33)^0.5+ABS(AT33)^0.5-ABS(AL33)^0.5)+(ABS(Y13)-ABS(Y12))+ABS(AVERAGE(AD12:AE12)*100))^(1+(AVERAGE(Q12:V12/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z33" s="167" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA33" s="130"/>
       <c r="AB33" s="146" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC33" s="132"/>
-      <c r="AD33" s="192"/>
-      <c r="AE33" s="182"/>
+      <c r="AD33" s="191"/>
+      <c r="AE33" s="181"/>
       <c r="AF33" s="132"/>
       <c r="AG33" s="129">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>45657</v>
       </c>
       <c r="AH33" s="165" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI33" s="172" t="e">
@@ -15270,7 +15335,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ33" s="165" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK33" s="172" t="e">
@@ -15278,7 +15343,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL33" s="165" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM33" s="172" t="e">
@@ -15286,7 +15351,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN33" s="165">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO33" s="172">
@@ -15294,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="165" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ33" s="172" t="e">
@@ -15302,7 +15367,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR33" s="165" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS33" s="172" t="e">
@@ -15310,7 +15375,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT33" s="165" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU33" s="172" t="e">
@@ -15326,11 +15391,11 @@
       <c r="AZ33" s="118"/>
       <c r="BA33" s="119"/>
       <c r="BB33" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC33" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC33">AB33-(BD12^(1+(AVERAGE(Q12:V12/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD33" s="116" t="e" vm="4">
@@ -15356,51 +15421,51 @@
         <v>45747</v>
       </c>
       <c r="C34" s="163" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E34" s="163" t="e">
+      <c r="J34" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="163" t="e">
+      <c r="L34" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L34" s="166" t="e">
+      <c r="N34" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N34" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O34" s="116"/>
@@ -15409,27 +15474,27 @@
         <v>45717</v>
       </c>
       <c r="Q34" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R34" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R34" s="105" t="e">
+      <c r="S34" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S34" s="105" t="e">
+      <c r="T34" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T34" s="105" t="e">
+      <c r="U34" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U34" s="105" t="e">
+      <c r="V34" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V34" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W34" s="105"/>
@@ -15438,28 +15503,28 @@
         <v>45747</v>
       </c>
       <c r="Y34" s="163" t="e" vm="4">
-        <f t="shared" si="45"/>
+        <f t="array" ref="Y34">((ABS(Y30)+ABS($Y$8))*(1+(ABS(Z17)/100)^0.5)+(ABS(AH34)^0.5+ABS(AJ34)^0.5+ABS(AN34)^0.5+ABS(AP34)^0.5+ABS(AR34)^0.5+ABS(AT34)^0.5-ABS(AL34)^0.5)+(ABS(Y14)-ABS(Y13))+ABS(AVERAGE(AD13:AE13)*100))^(1+(AVERAGE(Q13:V13/1000000))^0.5)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z34" s="166" t="e" vm="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA34" s="116"/>
       <c r="AB34" s="118" t="e" vm="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC34" s="105"/>
-      <c r="AD34" s="181"/>
-      <c r="AE34" s="182"/>
+      <c r="AD34" s="180"/>
+      <c r="AE34" s="181"/>
       <c r="AF34" s="105"/>
       <c r="AG34" s="114">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>45747</v>
       </c>
       <c r="AH34" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI34" s="171" t="e">
@@ -15467,7 +15532,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ34" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK34" s="171" t="e">
@@ -15475,7 +15540,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL34" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM34" s="171" t="e">
@@ -15483,7 +15548,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN34" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO34" s="171">
@@ -15491,7 +15556,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ34" s="171" t="e">
@@ -15499,7 +15564,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR34" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS34" s="171" t="e">
@@ -15507,7 +15572,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT34" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU34" s="171" t="e">
@@ -15523,11 +15588,11 @@
       <c r="AZ34" s="118"/>
       <c r="BA34" s="119"/>
       <c r="BB34" s="115" t="e" vm="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
       <c r="BC34" s="115" t="e" vm="4">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC34">AB34-(BD13^(1+(AVERAGE(Q13:V13/1000000))^0.5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BD34" s="116"/>
@@ -15550,51 +15615,51 @@
         <v>128</v>
       </c>
       <c r="C35" s="163" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D35" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E35" s="163" t="e">
+      <c r="J35" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="163" t="e">
+      <c r="L35" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="166" t="e">
+      <c r="N35" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="116"/>
@@ -15603,27 +15668,27 @@
         <v>45809</v>
       </c>
       <c r="Q35" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R35" s="105" t="e">
+      <c r="S35" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S35" s="105" t="e">
+      <c r="T35" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T35" s="105" t="e">
+      <c r="U35" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U35" s="105" t="e">
+      <c r="V35" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V35" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W35" s="105"/>
@@ -15632,28 +15697,28 @@
         <v>6/31/2025</v>
       </c>
       <c r="Y35" s="163" t="e">
-        <f t="shared" si="45"/>
+        <f t="array" ref="Y35">((ABS(Y31)+ABS($Y$8))*(1+(ABS(Z18)/100)^0.5)+(ABS(AH35)^0.5+ABS(AJ35)^0.5+ABS(AN35)^0.5+ABS(AP35)^0.5+ABS(AR35)^0.5+ABS(AT35)^0.5-ABS(AL35)^0.5)+(ABS(Y15)-ABS(Y14))+ABS(AVERAGE(AD14:AE14)*100))^(1+(AVERAGE(Q14:V14/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z35" s="166" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA35" s="116"/>
       <c r="AB35" s="118" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC35" s="105"/>
-      <c r="AD35" s="181"/>
-      <c r="AE35" s="182"/>
+      <c r="AD35" s="180"/>
+      <c r="AE35" s="181"/>
       <c r="AF35" s="105"/>
       <c r="AG35" s="114" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>6/31/2025</v>
       </c>
       <c r="AH35" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI35" s="171" t="e">
@@ -15661,7 +15726,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ35" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK35" s="171" t="e">
@@ -15669,7 +15734,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL35" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM35" s="171" t="e">
@@ -15677,7 +15742,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN35" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO35" s="171">
@@ -15685,7 +15750,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ35" s="171" t="e">
@@ -15693,7 +15758,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR35" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS35" s="171" t="e">
@@ -15701,7 +15766,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT35" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU35" s="171" t="e">
@@ -15717,11 +15782,11 @@
       <c r="AZ35" s="118"/>
       <c r="BA35" s="119"/>
       <c r="BB35" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC35" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC35">AB35-(BD14^(1+(AVERAGE(Q14:V14/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD35" s="116"/>
@@ -15744,51 +15809,51 @@
         <v>130</v>
       </c>
       <c r="C36" s="163" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D36" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="163" t="e">
+      <c r="J36" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="163" t="e">
+      <c r="L36" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="166" t="e">
+      <c r="N36" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="116"/>
@@ -15797,27 +15862,27 @@
         <v>45901</v>
       </c>
       <c r="Q36" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R36" s="105" t="e">
+      <c r="S36" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S36" s="105" t="e">
+      <c r="T36" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T36" s="105" t="e">
+      <c r="U36" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U36" s="105" t="e">
+      <c r="V36" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V36" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W36" s="105"/>
@@ -15826,28 +15891,28 @@
         <v>9/31/2025</v>
       </c>
       <c r="Y36" s="163" t="e">
-        <f t="shared" si="45"/>
+        <f t="array" ref="Y36">((ABS(Y32)+ABS($Y$8))*(1+(ABS(Z19)/100)^0.5)+(ABS(AH36)^0.5+ABS(AJ36)^0.5+ABS(AN36)^0.5+ABS(AP36)^0.5+ABS(AR36)^0.5+ABS(AT36)^0.5-ABS(AL36)^0.5)+(ABS(Y16)-ABS(Y15))+ABS(AVERAGE(AD15:AE15)*100))^(1+(AVERAGE(Q15:V15/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z36" s="166" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA36" s="116"/>
       <c r="AB36" s="118" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC36" s="105"/>
-      <c r="AD36" s="181"/>
-      <c r="AE36" s="182"/>
+      <c r="AD36" s="180"/>
+      <c r="AE36" s="181"/>
       <c r="AF36" s="105"/>
       <c r="AG36" s="114" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>9/31/2025</v>
       </c>
       <c r="AH36" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI36" s="171" t="e">
@@ -15855,7 +15920,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ36" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK36" s="171" t="e">
@@ -15863,7 +15928,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL36" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM36" s="171" t="e">
@@ -15871,7 +15936,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN36" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO36" s="171">
@@ -15879,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ36" s="171" t="e">
@@ -15887,7 +15952,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR36" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS36" s="171" t="e">
@@ -15895,7 +15960,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT36" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU36" s="171" t="e">
@@ -15911,11 +15976,11 @@
       <c r="AZ36" s="118"/>
       <c r="BA36" s="119"/>
       <c r="BB36" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC36" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC36">AB36-(BD15^(1+(AVERAGE(Q15:V15/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD36" s="116"/>
@@ -15938,51 +16003,51 @@
         <v>46022</v>
       </c>
       <c r="C37" s="165" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="167" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="165" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="167" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="165" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="167" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="169" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D37" s="167" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="165" t="e">
+      <c r="J37" s="167" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="165" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="167" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="165" t="e">
+      <c r="L37" s="167" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="165" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="167" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="169" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="167" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="165" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="167" t="e">
+      <c r="N37" s="167" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="165" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="167" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="130"/>
@@ -15991,27 +16056,27 @@
         <v>45992</v>
       </c>
       <c r="Q37" s="132" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="132" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R37" s="132" t="e">
+      <c r="S37" s="132" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S37" s="132" t="e">
+      <c r="T37" s="132" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T37" s="132" t="e">
+      <c r="U37" s="132" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U37" s="132" t="e">
+      <c r="V37" s="132" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V37" s="132" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W37" s="132"/>
@@ -16019,29 +16084,29 @@
         <f t="shared" si="5"/>
         <v>46022</v>
       </c>
-      <c r="Y37" s="163" t="e">
-        <f t="shared" si="45"/>
+      <c r="Y37" s="165" t="e">
+        <f t="array" ref="Y37">((ABS(Y33)+ABS($Y$8))*(1+(ABS(Z20)/100)^0.5)+(ABS(AH37)^0.5+ABS(AJ37)^0.5+ABS(AN37)^0.5+ABS(AP37)^0.5+ABS(AR37)^0.5+ABS(AT37)^0.5-ABS(AL37)^0.5)+(ABS(Y17)-ABS(Y16))+ABS(AVERAGE(AD16:AE16)*100))^(1+(AVERAGE(Q16:V16/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z37" s="167" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA37" s="130"/>
       <c r="AB37" s="146" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC37" s="132"/>
-      <c r="AD37" s="192"/>
-      <c r="AE37" s="182"/>
+      <c r="AD37" s="191"/>
+      <c r="AE37" s="181"/>
       <c r="AF37" s="132"/>
       <c r="AG37" s="129">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>46022</v>
       </c>
       <c r="AH37" s="165" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI37" s="172" t="e">
@@ -16049,7 +16114,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ37" s="165" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK37" s="172" t="e">
@@ -16057,7 +16122,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL37" s="165" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM37" s="172" t="e">
@@ -16065,7 +16130,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN37" s="165">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO37" s="172">
@@ -16073,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="165" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ37" s="172" t="e">
@@ -16081,7 +16146,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR37" s="165" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS37" s="172" t="e">
@@ -16089,7 +16154,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT37" s="165" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU37" s="172" t="e">
@@ -16105,11 +16170,11 @@
       <c r="AZ37" s="118"/>
       <c r="BA37" s="119"/>
       <c r="BB37" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC37" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC37">AB37-(BD16^(1+(AVERAGE(Q16:V16/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD37" s="116" t="e" vm="4">
@@ -16135,51 +16200,51 @@
         <v>46112</v>
       </c>
       <c r="C38" s="163" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E38" s="163" t="e">
+      <c r="J38" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="163" t="e">
+      <c r="L38" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="166" t="e">
+      <c r="N38" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N38" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="116"/>
@@ -16188,27 +16253,27 @@
         <v>46082</v>
       </c>
       <c r="Q38" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R38" s="105" t="e">
+      <c r="S38" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S38" s="105" t="e">
+      <c r="T38" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T38" s="105" t="e">
+      <c r="U38" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U38" s="105" t="e">
+      <c r="V38" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V38" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W38" s="105"/>
@@ -16217,28 +16282,28 @@
         <v>46112</v>
       </c>
       <c r="Y38" s="163" t="e" vm="4">
-        <f t="shared" si="45"/>
+        <f t="array" ref="Y38">((ABS(Y34)+ABS($Y$8))*(1+(ABS(Z21)/100)^0.5)+(ABS(AH38)^0.5+ABS(AJ38)^0.5+ABS(AN38)^0.5+ABS(AP38)^0.5+ABS(AR38)^0.5+ABS(AT38)^0.5-ABS(AL38)^0.5)+(ABS(Y18)-ABS(Y17))+ABS(AVERAGE(AD17:AE17)*100))^(1+(AVERAGE(Q17:V17/1000000))^0.5)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z38" s="166" t="e" vm="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA38" s="116"/>
       <c r="AB38" s="118" t="e" vm="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC38" s="105"/>
-      <c r="AD38" s="181"/>
-      <c r="AE38" s="182"/>
+      <c r="AD38" s="180"/>
+      <c r="AE38" s="181"/>
       <c r="AF38" s="105"/>
       <c r="AG38" s="114">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>46112</v>
       </c>
       <c r="AH38" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI38" s="171" t="e">
@@ -16246,7 +16311,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ38" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK38" s="171" t="e">
@@ -16254,7 +16319,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL38" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM38" s="171" t="e">
@@ -16262,7 +16327,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN38" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO38" s="171">
@@ -16270,7 +16335,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ38" s="171" t="e">
@@ -16278,7 +16343,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR38" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS38" s="171" t="e">
@@ -16286,7 +16351,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT38" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU38" s="171" t="e">
@@ -16302,11 +16367,11 @@
       <c r="AZ38" s="118"/>
       <c r="BA38" s="119"/>
       <c r="BB38" s="115" t="e" vm="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
       <c r="BC38" s="115" t="e" vm="4">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC38">AB38-(BD17^(1+(AVERAGE(Q17:V17/1000000))^0.5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BD38" s="116"/>
@@ -16329,51 +16394,51 @@
         <v>134</v>
       </c>
       <c r="C39" s="163" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D39" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" s="163" t="e">
+      <c r="J39" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="163" t="e">
+      <c r="L39" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="166" t="e">
+      <c r="N39" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N39" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="116"/>
@@ -16382,27 +16447,27 @@
         <v>46174</v>
       </c>
       <c r="Q39" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R39" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R39" s="105" t="e">
+      <c r="S39" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S39" s="105" t="e">
+      <c r="T39" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T39" s="105" t="e">
+      <c r="U39" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U39" s="105" t="e">
+      <c r="V39" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V39" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W39" s="105"/>
@@ -16411,28 +16476,28 @@
         <v>6/31/2026</v>
       </c>
       <c r="Y39" s="163" t="e">
-        <f t="shared" si="45"/>
+        <f t="array" ref="Y39">((ABS(Y35)+ABS($Y$8))*(1+(ABS(Z22)/100)^0.5)+(ABS(AH39)^0.5+ABS(AJ39)^0.5+ABS(AN39)^0.5+ABS(AP39)^0.5+ABS(AR39)^0.5+ABS(AT39)^0.5-ABS(AL39)^0.5)+(ABS(Y19)-ABS(Y18))+ABS(AVERAGE(AD18:AE18)*100))^(1+(AVERAGE(Q18:V18/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z39" s="166" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA39" s="116"/>
       <c r="AB39" s="118" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC39" s="105"/>
-      <c r="AD39" s="181"/>
-      <c r="AE39" s="182"/>
+      <c r="AD39" s="180"/>
+      <c r="AE39" s="181"/>
       <c r="AF39" s="105"/>
       <c r="AG39" s="114" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>6/31/2026</v>
       </c>
       <c r="AH39" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI39" s="171" t="e">
@@ -16440,7 +16505,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ39" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK39" s="171" t="e">
@@ -16448,7 +16513,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL39" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM39" s="171" t="e">
@@ -16456,7 +16521,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN39" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO39" s="171">
@@ -16464,7 +16529,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ39" s="171" t="e">
@@ -16472,7 +16537,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR39" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS39" s="171" t="e">
@@ -16480,7 +16545,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT39" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU39" s="171" t="e">
@@ -16496,11 +16561,11 @@
       <c r="AZ39" s="118"/>
       <c r="BA39" s="119"/>
       <c r="BB39" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC39" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC39">AB39-(BD18^(1+(AVERAGE(Q18:V18/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD39" s="116"/>
@@ -16523,51 +16588,51 @@
         <v>136</v>
       </c>
       <c r="C40" s="163" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="163" t="e">
+      <c r="J40" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="163" t="e">
+      <c r="L40" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="166" t="e">
+      <c r="N40" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O40" s="116"/>
@@ -16576,27 +16641,27 @@
         <v>46266</v>
       </c>
       <c r="Q40" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R40" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R40" s="105" t="e">
+      <c r="S40" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S40" s="105" t="e">
+      <c r="T40" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T40" s="105" t="e">
+      <c r="U40" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U40" s="105" t="e">
+      <c r="V40" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V40" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W40" s="105"/>
@@ -16605,28 +16670,28 @@
         <v>9/31/2026</v>
       </c>
       <c r="Y40" s="163" t="e">
-        <f t="shared" si="45"/>
+        <f t="array" ref="Y40">((ABS(Y36)+ABS($Y$8))*(1+(ABS(Z23)/100)^0.5)+(ABS(AH40)^0.5+ABS(AJ40)^0.5+ABS(AN40)^0.5+ABS(AP40)^0.5+ABS(AR40)^0.5+ABS(AT40)^0.5-ABS(AL40)^0.5)+(ABS(Y20)-ABS(Y19))+ABS(AVERAGE(AD19:AE19)*100))^(1+(AVERAGE(Q19:V19/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z40" s="166" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA40" s="116"/>
       <c r="AB40" s="118" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC40" s="105"/>
-      <c r="AD40" s="181"/>
-      <c r="AE40" s="182"/>
+      <c r="AD40" s="180"/>
+      <c r="AE40" s="181"/>
       <c r="AF40" s="105"/>
       <c r="AG40" s="114" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>9/31/2026</v>
       </c>
       <c r="AH40" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI40" s="171" t="e">
@@ -16634,7 +16699,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ40" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK40" s="171" t="e">
@@ -16642,7 +16707,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL40" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM40" s="171" t="e">
@@ -16650,7 +16715,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN40" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO40" s="171">
@@ -16658,7 +16723,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ40" s="171" t="e">
@@ -16666,7 +16731,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR40" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS40" s="171" t="e">
@@ -16674,7 +16739,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT40" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU40" s="171" t="e">
@@ -16690,11 +16755,11 @@
       <c r="AZ40" s="118"/>
       <c r="BA40" s="119"/>
       <c r="BB40" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC40" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC40">AB40-(BD19^(1+(AVERAGE(Q19:V19/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD40" s="116"/>
@@ -16717,51 +16782,51 @@
         <v>46387</v>
       </c>
       <c r="C41" s="165" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" s="167" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="165" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="167" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="165" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="167" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="169" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D41" s="167" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E41" s="165" t="e">
+      <c r="J41" s="167" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="165" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="167" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="165" t="e">
+      <c r="L41" s="167" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="165" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="167" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="169" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="167" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="165" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="167" t="e">
+      <c r="N41" s="167" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="165" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N41" s="167" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="130"/>
@@ -16770,27 +16835,27 @@
         <v>46357</v>
       </c>
       <c r="Q41" s="132" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R41" s="132" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R41" s="132" t="e">
+      <c r="S41" s="132" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S41" s="132" t="e">
+      <c r="T41" s="132" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T41" s="132" t="e">
+      <c r="U41" s="132" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U41" s="132" t="e">
+      <c r="V41" s="132" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V41" s="132" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W41" s="132"/>
@@ -16798,29 +16863,29 @@
         <f t="shared" si="5"/>
         <v>46387</v>
       </c>
-      <c r="Y41" s="163" t="e">
-        <f t="shared" si="45"/>
+      <c r="Y41" s="165" t="e">
+        <f t="array" ref="Y41">((ABS(Y37)+ABS($Y$8))*(1+(ABS(Z24)/100)^0.5)+(ABS(AH41)^0.5+ABS(AJ41)^0.5+ABS(AN41)^0.5+ABS(AP41)^0.5+ABS(AR41)^0.5+ABS(AT41)^0.5-ABS(AL41)^0.5)+(ABS(Y21)-ABS(Y20))+ABS(AVERAGE(AD20:AE20)*100))^(1+(AVERAGE(Q20:V20/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z41" s="167" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA41" s="130"/>
       <c r="AB41" s="146" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC41" s="132"/>
-      <c r="AD41" s="192"/>
-      <c r="AE41" s="182"/>
+      <c r="AD41" s="191"/>
+      <c r="AE41" s="181"/>
       <c r="AF41" s="132"/>
       <c r="AG41" s="129">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>46387</v>
       </c>
       <c r="AH41" s="165" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI41" s="172" t="e">
@@ -16828,7 +16893,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ41" s="165" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK41" s="172" t="e">
@@ -16836,7 +16901,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL41" s="165" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM41" s="172" t="e">
@@ -16844,7 +16909,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN41" s="165">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO41" s="172">
@@ -16852,7 +16917,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="165" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ41" s="172" t="e">
@@ -16860,7 +16925,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR41" s="165" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS41" s="172" t="e">
@@ -16868,7 +16933,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT41" s="165" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU41" s="172" t="e">
@@ -16884,11 +16949,11 @@
       <c r="AZ41" s="118"/>
       <c r="BA41" s="119"/>
       <c r="BB41" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC41" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC41">AB41-(BD20^(1+(AVERAGE(Q20:V20/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD41" s="116" t="e" vm="4">
@@ -16914,51 +16979,51 @@
         <v>46477</v>
       </c>
       <c r="C42" s="163" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D42" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E42" s="163" t="e">
+      <c r="J42" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="163" t="e">
+      <c r="L42" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J42" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="166" t="e">
+      <c r="N42" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="116"/>
@@ -16967,27 +17032,27 @@
         <v>46447</v>
       </c>
       <c r="Q42" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R42" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R42" s="105" t="e">
+      <c r="S42" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S42" s="105" t="e">
+      <c r="T42" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T42" s="105" t="e">
+      <c r="U42" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U42" s="105" t="e">
+      <c r="V42" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V42" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W42" s="105"/>
@@ -16996,28 +17061,28 @@
         <v>46477</v>
       </c>
       <c r="Y42" s="163" t="e" vm="4">
-        <f t="shared" si="45"/>
+        <f t="array" ref="Y42">((ABS(Y38)+ABS($Y$8))*(1+(ABS(Z25)/100)^0.5)+(ABS(AH42)^0.5+ABS(AJ42)^0.5+ABS(AN42)^0.5+ABS(AP42)^0.5+ABS(AR42)^0.5+ABS(AT42)^0.5-ABS(AL42)^0.5)+(ABS(Y22)-ABS(Y21))+ABS(AVERAGE(AD21:AE21)*100))^(1+(AVERAGE(Q21:V21/1000000))^0.5)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z42" s="166" t="e" vm="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA42" s="116"/>
       <c r="AB42" s="118" t="e" vm="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC42" s="105"/>
-      <c r="AD42" s="181"/>
-      <c r="AE42" s="182"/>
+      <c r="AD42" s="180"/>
+      <c r="AE42" s="181"/>
       <c r="AF42" s="105"/>
       <c r="AG42" s="114">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>46477</v>
       </c>
       <c r="AH42" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI42" s="171" t="e">
@@ -17025,7 +17090,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ42" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK42" s="171" t="e">
@@ -17033,7 +17098,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL42" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM42" s="171" t="e">
@@ -17041,7 +17106,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN42" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO42" s="171">
@@ -17049,7 +17114,7 @@
         <v>0</v>
       </c>
       <c r="AP42" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ42" s="171" t="e">
@@ -17057,7 +17122,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR42" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS42" s="171" t="e">
@@ -17065,7 +17130,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT42" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU42" s="171" t="e">
@@ -17081,36 +17146,36 @@
       <c r="AZ42" s="118"/>
       <c r="BA42" s="119"/>
       <c r="BB42" s="115" t="e" vm="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
       <c r="BC42" s="115" t="e" vm="4">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC42">AB42-(BD21^(1+(AVERAGE(Q21:V21/1000000))^0.5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BD42" s="116"/>
       <c r="BE42" s="107"/>
-      <c r="BF42" s="184" t="s">
+      <c r="BF42" s="183" t="s">
         <v>139</v>
       </c>
-      <c r="BG42" s="182"/>
-      <c r="BH42" s="184" t="str">
-        <f>A31</f>
-        <v>2024.Q2</v>
-      </c>
-      <c r="BI42" s="183" t="e">
-        <f>AVERAGE(BC33:BD33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ42" s="194" t="e">
+      <c r="BG42" s="181"/>
+      <c r="BH42" s="183" t="str">
+        <f>A33</f>
+        <v>2024.Q4</v>
+      </c>
+      <c r="BI42" s="182" t="e" vm="4">
+        <f>(AVERAGE(BC30:BC33)+BC33)/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ42" s="193" t="e" vm="4">
         <f>(BI42-BB6)/BB6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK42" s="200" t="e">
-        <f t="array" ref="BK42">_xlfn.IFS(BJ42&gt;0, "UNDERVALUED", BJ42&lt;0, "OVERVALUED")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL42" s="182"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK42" s="199" t="e" vm="4">
+        <f t="array" ref="BK42">_xlfn.IFS(BJ42&gt;0.05, "UNDERVALUED", BJ42&lt;0, "OVERVALUED", 0.05&gt;BJ42&gt;-0.05, "NEUTRAL")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BL42" s="181"/>
       <c r="BM42" s="55"/>
       <c r="BN42" s="107"/>
     </row>
@@ -17122,51 +17187,51 @@
         <v>141</v>
       </c>
       <c r="C43" s="163" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D43" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E43" s="163" t="e">
+      <c r="J43" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="163" t="e">
+      <c r="L43" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J43" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K43" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L43" s="166" t="e">
+      <c r="N43" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N43" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="116"/>
@@ -17175,27 +17240,27 @@
         <v>46539</v>
       </c>
       <c r="Q43" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R43" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R43" s="105" t="e">
+      <c r="S43" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S43" s="105" t="e">
+      <c r="T43" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T43" s="105" t="e">
+      <c r="U43" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U43" s="105" t="e">
+      <c r="V43" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V43" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W43" s="105"/>
@@ -17204,28 +17269,28 @@
         <v>6/31/2027</v>
       </c>
       <c r="Y43" s="163" t="e">
-        <f t="shared" si="45"/>
+        <f t="array" ref="Y43">((ABS(Y39)+ABS($Y$8))*(1+(ABS(Z26)/100)^0.5)+(ABS(AH43)^0.5+ABS(AJ43)^0.5+ABS(AN43)^0.5+ABS(AP43)^0.5+ABS(AR43)^0.5+ABS(AT43)^0.5-ABS(AL43)^0.5)+(ABS(Y23)-ABS(Y22))+ABS(AVERAGE(AD22:AE22)*100))^(1+(AVERAGE(Q22:V22/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z43" s="166" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA43" s="116"/>
       <c r="AB43" s="118" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC43" s="105"/>
-      <c r="AD43" s="181"/>
-      <c r="AE43" s="182"/>
+      <c r="AD43" s="180"/>
+      <c r="AE43" s="181"/>
       <c r="AF43" s="105"/>
       <c r="AG43" s="114" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>6/31/2027</v>
       </c>
       <c r="AH43" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI43" s="171" t="e">
@@ -17233,7 +17298,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ43" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK43" s="171" t="e">
@@ -17241,7 +17306,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL43" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM43" s="171" t="e">
@@ -17249,7 +17314,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN43" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO43" s="171">
@@ -17257,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ43" s="171" t="e">
@@ -17265,7 +17330,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR43" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS43" s="171" t="e">
@@ -17273,7 +17338,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT43" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU43" s="171" t="e">
@@ -17289,22 +17354,22 @@
       <c r="AZ43" s="118"/>
       <c r="BA43" s="119"/>
       <c r="BB43" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC43" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC43">AB43-(BD22^(1+(AVERAGE(Q22:V22/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD43" s="116"/>
       <c r="BE43" s="107"/>
-      <c r="BF43" s="182"/>
-      <c r="BG43" s="182"/>
-      <c r="BH43" s="182"/>
-      <c r="BI43" s="182"/>
-      <c r="BJ43" s="182"/>
-      <c r="BK43" s="182"/>
-      <c r="BL43" s="182"/>
+      <c r="BF43" s="181"/>
+      <c r="BG43" s="181"/>
+      <c r="BH43" s="181"/>
+      <c r="BI43" s="181"/>
+      <c r="BJ43" s="181"/>
+      <c r="BK43" s="181"/>
+      <c r="BL43" s="181"/>
       <c r="BM43" s="55"/>
       <c r="BN43" s="107"/>
     </row>
@@ -17316,51 +17381,51 @@
         <v>143</v>
       </c>
       <c r="C44" s="163" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E44" s="163" t="e">
+      <c r="J44" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="163" t="e">
+      <c r="L44" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J44" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K44" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L44" s="166" t="e">
+      <c r="N44" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N44" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="116"/>
@@ -17369,27 +17434,27 @@
         <v>46631</v>
       </c>
       <c r="Q44" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R44" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R44" s="105" t="e">
+      <c r="S44" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S44" s="105" t="e">
+      <c r="T44" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T44" s="105" t="e">
+      <c r="U44" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U44" s="105" t="e">
+      <c r="V44" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V44" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W44" s="105"/>
@@ -17398,28 +17463,28 @@
         <v>9/31/2027</v>
       </c>
       <c r="Y44" s="163" t="e">
-        <f t="shared" si="45"/>
+        <f t="array" ref="Y44">((ABS(Y40)+ABS($Y$8))*(1+(ABS(Z27)/100)^0.5)+(ABS(AH44)^0.5+ABS(AJ44)^0.5+ABS(AN44)^0.5+ABS(AP44)^0.5+ABS(AR44)^0.5+ABS(AT44)^0.5-ABS(AL44)^0.5)+(ABS(Y24)-ABS(Y23))+ABS(AVERAGE(AD23:AE23)*100))^(1+(AVERAGE(Q23:V23/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z44" s="166" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA44" s="116"/>
       <c r="AB44" s="118" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC44" s="105"/>
-      <c r="AD44" s="181"/>
-      <c r="AE44" s="182"/>
+      <c r="AD44" s="180"/>
+      <c r="AE44" s="181"/>
       <c r="AF44" s="105"/>
       <c r="AG44" s="114" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>9/31/2027</v>
       </c>
       <c r="AH44" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI44" s="171" t="e">
@@ -17427,7 +17492,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ44" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK44" s="171" t="e">
@@ -17435,7 +17500,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL44" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM44" s="171" t="e">
@@ -17443,7 +17508,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN44" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO44" s="171">
@@ -17451,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ44" s="171" t="e">
@@ -17459,7 +17524,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR44" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS44" s="171" t="e">
@@ -17467,7 +17532,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT44" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU44" s="171" t="e">
@@ -17483,11 +17548,11 @@
       <c r="AZ44" s="118"/>
       <c r="BA44" s="119"/>
       <c r="BB44" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC44" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC44">AB44-(BD23^(1+(AVERAGE(Q23:V23/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD44" s="116"/>
@@ -17510,51 +17575,51 @@
         <v>46752</v>
       </c>
       <c r="C45" s="165" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D45" s="167" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" s="165" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="167" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" s="165" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" s="167" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="169" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D45" s="167" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45" s="165" t="e">
+      <c r="J45" s="167" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" s="165" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="167" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="165" t="e">
+      <c r="L45" s="167" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="165" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="167" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="169" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J45" s="167" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K45" s="165" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L45" s="167" t="e">
+      <c r="N45" s="167" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="165" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N45" s="167" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="130"/>
@@ -17563,27 +17628,27 @@
         <v>46722</v>
       </c>
       <c r="Q45" s="132" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R45" s="132" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R45" s="132" t="e">
+      <c r="S45" s="132" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S45" s="132" t="e">
+      <c r="T45" s="132" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T45" s="132" t="e">
+      <c r="U45" s="132" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U45" s="132" t="e">
+      <c r="V45" s="132" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V45" s="132" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W45" s="132"/>
@@ -17591,29 +17656,29 @@
         <f t="shared" si="5"/>
         <v>46752</v>
       </c>
-      <c r="Y45" s="163" t="e">
-        <f t="shared" si="45"/>
+      <c r="Y45" s="165" t="e">
+        <f t="array" ref="Y45">((ABS(Y41)+ABS($Y$8))*(1+(ABS(Z28)/100)^0.5)+(ABS(AH45)^0.5+ABS(AJ45)^0.5+ABS(AN45)^0.5+ABS(AP45)^0.5+ABS(AR45)^0.5+ABS(AT45)^0.5-ABS(AL45)^0.5)+(ABS(Y25)-ABS(Y24))+ABS(AVERAGE(AD24:AE24)*100))^(1+(AVERAGE(Q24:V24/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z45" s="167" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA45" s="130"/>
       <c r="AB45" s="146" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC45" s="132"/>
-      <c r="AD45" s="192"/>
-      <c r="AE45" s="182"/>
+      <c r="AD45" s="191"/>
+      <c r="AE45" s="181"/>
       <c r="AF45" s="132"/>
       <c r="AG45" s="129">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>46752</v>
       </c>
       <c r="AH45" s="165" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI45" s="172" t="e">
@@ -17621,7 +17686,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ45" s="165" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK45" s="172" t="e">
@@ -17629,7 +17694,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL45" s="165" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM45" s="172" t="e">
@@ -17637,7 +17702,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN45" s="165">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO45" s="172">
@@ -17645,7 +17710,7 @@
         <v>0</v>
       </c>
       <c r="AP45" s="165" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ45" s="172" t="e">
@@ -17653,7 +17718,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR45" s="165" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS45" s="172" t="e">
@@ -17661,7 +17726,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT45" s="165" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU45" s="172" t="e">
@@ -17677,11 +17742,11 @@
       <c r="AZ45" s="118"/>
       <c r="BA45" s="119"/>
       <c r="BB45" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC45" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC45">AB45-(BD24^(1+(AVERAGE(Q24:V24/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD45" s="116" t="e" vm="4">
@@ -17707,51 +17772,51 @@
         <v>46843</v>
       </c>
       <c r="C46" s="163" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D46" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E46" s="163" t="e">
+      <c r="J46" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F46" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="163" t="e">
+      <c r="L46" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K46" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L46" s="166" t="e">
+      <c r="N46" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N46" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O46" s="116"/>
@@ -17760,27 +17825,27 @@
         <v>46813</v>
       </c>
       <c r="Q46" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R46" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R46" s="105" t="e">
+      <c r="S46" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S46" s="105" t="e">
+      <c r="T46" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T46" s="105" t="e">
+      <c r="U46" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U46" s="105" t="e">
+      <c r="V46" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V46" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W46" s="105"/>
@@ -17789,28 +17854,28 @@
         <v>46843</v>
       </c>
       <c r="Y46" s="163" t="e" vm="4">
-        <f t="shared" si="45"/>
+        <f t="array" ref="Y46">((ABS(Y42)+ABS($Y$8))*(1+(ABS(Z29)/100)^0.5)+(ABS(AH46)^0.5+ABS(AJ46)^0.5+ABS(AN46)^0.5+ABS(AP46)^0.5+ABS(AR46)^0.5+ABS(AT46)^0.5-ABS(AL46)^0.5)+(ABS(Y26)-ABS(Y25))+ABS(AVERAGE(AD25:AE25)*100))^(1+(AVERAGE(Q25:V25/1000000))^0.5)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z46" s="166" t="e" vm="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA46" s="116"/>
       <c r="AB46" s="118" t="e" vm="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC46" s="105"/>
-      <c r="AD46" s="181"/>
-      <c r="AE46" s="182"/>
+      <c r="AD46" s="180"/>
+      <c r="AE46" s="181"/>
       <c r="AF46" s="105"/>
       <c r="AG46" s="114">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>46843</v>
       </c>
       <c r="AH46" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI46" s="171" t="e">
@@ -17818,7 +17883,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ46" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK46" s="171" t="e">
@@ -17826,7 +17891,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL46" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM46" s="171" t="e">
@@ -17834,7 +17899,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN46" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO46" s="171">
@@ -17842,7 +17907,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ46" s="171" t="e">
@@ -17850,7 +17915,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR46" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS46" s="171" t="e">
@@ -17858,7 +17923,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT46" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU46" s="171" t="e">
@@ -17874,36 +17939,36 @@
       <c r="AZ46" s="118"/>
       <c r="BA46" s="119"/>
       <c r="BB46" s="115" t="e" vm="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
       <c r="BC46" s="115" t="e" vm="4">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC46">AB46-(BD25^(1+(AVERAGE(Q25:V25/1000000))^0.5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BD46" s="116"/>
       <c r="BE46" s="107"/>
-      <c r="BF46" s="184" t="s">
+      <c r="BF46" s="183" t="s">
         <v>146</v>
       </c>
-      <c r="BG46" s="182"/>
-      <c r="BH46" s="184" t="str">
+      <c r="BG46" s="181"/>
+      <c r="BH46" s="183" t="str">
         <f>A49</f>
         <v>2028.Q4</v>
       </c>
-      <c r="BI46" s="183" t="e">
-        <f>AVERAGE(BC49:BD49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ46" s="194" t="e">
+      <c r="BI46" s="182" t="e" vm="4">
+        <f>(AVERAGE(BC46:BC49)+BC49)/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ46" s="193" t="e" vm="4">
         <f>(BI46-BB6)/BB6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK46" s="200" t="e">
-        <f t="array" ref="BK46">_xlfn.IFS(BJ46&gt;0, "UNDERVALUED", BJ46&lt;0, "OVERVALUED")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL46" s="182"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK46" s="199" t="e" vm="4">
+        <f t="array" ref="BK46">_xlfn.IFS(BJ46&gt;0.01, "BUY", BJ46&lt;0, "SELL", 0.01&gt;BJ46&gt;-0.01, "NEUTRAL")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BL46" s="181"/>
       <c r="BM46" s="55"/>
       <c r="BN46" s="107"/>
     </row>
@@ -17915,51 +17980,51 @@
         <v>148</v>
       </c>
       <c r="C47" s="163" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D47" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D47" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E47" s="163" t="e">
+      <c r="J47" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G47" s="163" t="e">
+      <c r="L47" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K47" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="166" t="e">
+      <c r="N47" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O47" s="116"/>
@@ -17968,27 +18033,27 @@
         <v>46905</v>
       </c>
       <c r="Q47" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R47" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R47" s="105" t="e">
+      <c r="S47" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S47" s="105" t="e">
+      <c r="T47" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T47" s="105" t="e">
+      <c r="U47" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U47" s="105" t="e">
+      <c r="V47" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V47" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W47" s="105"/>
@@ -17997,28 +18062,28 @@
         <v>6/31/2028</v>
       </c>
       <c r="Y47" s="163" t="e">
-        <f t="shared" si="45"/>
+        <f t="array" ref="Y47">((ABS(Y43)+ABS($Y$8))*(1+(ABS(Z30)/100)^0.5)+(ABS(AH47)^0.5+ABS(AJ47)^0.5+ABS(AN47)^0.5+ABS(AP47)^0.5+ABS(AR47)^0.5+ABS(AT47)^0.5-ABS(AL47)^0.5)+(ABS(Y27)-ABS(Y26))+ABS(AVERAGE(AD26:AE26)*100))^(1+(AVERAGE(Q26:V26/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z47" s="166" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA47" s="116"/>
       <c r="AB47" s="118" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC47" s="105"/>
-      <c r="AD47" s="181"/>
-      <c r="AE47" s="182"/>
+      <c r="AD47" s="180"/>
+      <c r="AE47" s="181"/>
       <c r="AF47" s="105"/>
       <c r="AG47" s="114" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>6/31/2028</v>
       </c>
       <c r="AH47" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI47" s="171" t="e">
@@ -18026,7 +18091,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ47" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK47" s="171" t="e">
@@ -18034,7 +18099,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL47" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM47" s="171" t="e">
@@ -18042,7 +18107,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN47" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO47" s="171">
@@ -18050,7 +18115,7 @@
         <v>0</v>
       </c>
       <c r="AP47" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ47" s="171" t="e">
@@ -18058,7 +18123,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR47" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS47" s="171" t="e">
@@ -18066,7 +18131,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT47" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU47" s="171" t="e">
@@ -18082,22 +18147,22 @@
       <c r="AZ47" s="118"/>
       <c r="BA47" s="119"/>
       <c r="BB47" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC47" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC47">AB47-(BD26^(1+(AVERAGE(Q26:V26/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD47" s="116"/>
       <c r="BE47" s="107"/>
-      <c r="BF47" s="182"/>
-      <c r="BG47" s="182"/>
-      <c r="BH47" s="182"/>
-      <c r="BI47" s="182"/>
-      <c r="BJ47" s="182"/>
-      <c r="BK47" s="182"/>
-      <c r="BL47" s="182"/>
+      <c r="BF47" s="181"/>
+      <c r="BG47" s="181"/>
+      <c r="BH47" s="181"/>
+      <c r="BI47" s="181"/>
+      <c r="BJ47" s="181"/>
+      <c r="BK47" s="181"/>
+      <c r="BL47" s="181"/>
       <c r="BM47" s="55"/>
       <c r="BN47" s="107"/>
     </row>
@@ -18109,51 +18174,51 @@
         <v>150</v>
       </c>
       <c r="C48" s="163" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="166" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" s="163" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F48" s="166" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" s="163" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" s="166" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" s="168" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="166" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E48" s="163" t="e">
+      <c r="J48" s="166" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K48" s="163" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F48" s="166" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G48" s="163" t="e">
+      <c r="L48" s="166" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" s="163" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="166" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="168" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="166" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K48" s="163" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L48" s="166" t="e">
+      <c r="N48" s="166" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48" s="163" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N48" s="166" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O48" s="116"/>
@@ -18162,27 +18227,27 @@
         <v>46997</v>
       </c>
       <c r="Q48" s="105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R48" s="105" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R48" s="105" t="e">
+      <c r="S48" s="105" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S48" s="105" t="e">
+      <c r="T48" s="105" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T48" s="105" t="e">
+      <c r="U48" s="105" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U48" s="105" t="e">
+      <c r="V48" s="105" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V48" s="105" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W48" s="105"/>
@@ -18191,28 +18256,28 @@
         <v>9/31/2028</v>
       </c>
       <c r="Y48" s="163" t="e">
-        <f t="shared" si="45"/>
+        <f t="array" ref="Y48">((ABS(Y44)+ABS($Y$8))*(1+(ABS(Z31)/100)^0.5)+(ABS(AH48)^0.5+ABS(AJ48)^0.5+ABS(AN48)^0.5+ABS(AP48)^0.5+ABS(AR48)^0.5+ABS(AT48)^0.5-ABS(AL48)^0.5)+(ABS(Y28)-ABS(Y27))+ABS(AVERAGE(AD27:AE27)*100))^(1+(AVERAGE(Q27:V27/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z48" s="166" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA48" s="116"/>
       <c r="AB48" s="118" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC48" s="105"/>
-      <c r="AD48" s="181"/>
-      <c r="AE48" s="182"/>
+      <c r="AD48" s="180"/>
+      <c r="AE48" s="181"/>
       <c r="AF48" s="105"/>
       <c r="AG48" s="114" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>9/31/2028</v>
       </c>
       <c r="AH48" s="163" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI48" s="171" t="e">
@@ -18220,7 +18285,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ48" s="163" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK48" s="171" t="e">
@@ -18228,7 +18293,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL48" s="163" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM48" s="171" t="e">
@@ -18236,7 +18301,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN48" s="163">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO48" s="171">
@@ -18244,7 +18309,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="163" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ48" s="171" t="e">
@@ -18252,7 +18317,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR48" s="163" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS48" s="171" t="e">
@@ -18260,7 +18325,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT48" s="163" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU48" s="171" t="e">
@@ -18276,11 +18341,11 @@
       <c r="AZ48" s="118"/>
       <c r="BA48" s="119"/>
       <c r="BB48" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC48" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC48">AB48-(BD27^(1+(AVERAGE(Q27:V27/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD48" s="116"/>
@@ -18303,51 +18368,51 @@
         <v>47118</v>
       </c>
       <c r="C49" s="165" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D49" s="167" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="165" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F49" s="167" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="165" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="167" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" s="169" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D49" s="167" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="165" t="e">
+      <c r="J49" s="167" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K49" s="165" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="167" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G49" s="165" t="e">
+      <c r="L49" s="167" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" s="165" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="167" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="169" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="167" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K49" s="165" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L49" s="167" t="e">
+      <c r="N49" s="167" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M49" s="165" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N49" s="167" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O49" s="130"/>
@@ -18356,27 +18421,27 @@
         <v>47088</v>
       </c>
       <c r="Q49" s="132" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R49" s="132" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R49" s="132" t="e">
+      <c r="S49" s="132" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S49" s="132" t="e">
+      <c r="T49" s="132" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T49" s="132" t="e">
+      <c r="U49" s="132" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U49" s="132" t="e">
+      <c r="V49" s="132" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V49" s="132" t="e">
-        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W49" s="132"/>
@@ -18384,29 +18449,29 @@
         <f t="shared" si="5"/>
         <v>47118</v>
       </c>
-      <c r="Y49" s="163" t="e">
-        <f t="shared" si="45"/>
+      <c r="Y49" s="165" t="e">
+        <f t="array" ref="Y49">((ABS(Y45)+ABS($Y$8))*(1+(ABS(Z32)/100)^0.5)+(ABS(AH49)^0.5+ABS(AJ49)^0.5+ABS(AN49)^0.5+ABS(AP49)^0.5+ABS(AR49)^0.5+ABS(AT49)^0.5-ABS(AL49)^0.5)+(ABS(Y29)-ABS(Y28))+ABS(AVERAGE(AD28:AE28)*100))^(1+(AVERAGE(Q28:V28/1000000))^0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z49" s="167" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA49" s="130"/>
       <c r="AB49" s="146" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC49" s="132"/>
-      <c r="AD49" s="192"/>
-      <c r="AE49" s="182"/>
+      <c r="AD49" s="191"/>
+      <c r="AE49" s="181"/>
       <c r="AF49" s="132"/>
       <c r="AG49" s="129">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>47118</v>
       </c>
       <c r="AH49" s="165" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI49" s="172" t="e">
@@ -18414,7 +18479,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ49" s="165" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK49" s="172" t="e">
@@ -18422,7 +18487,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL49" s="165" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM49" s="172" t="e">
@@ -18430,7 +18495,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AN49" s="165">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO49" s="172">
@@ -18438,7 +18503,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="165" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ49" s="172" t="e">
@@ -18446,7 +18511,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR49" s="165" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS49" s="172" t="e">
@@ -18454,7 +18519,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT49" s="165" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU49" s="172" t="e">
@@ -18470,11 +18535,11 @@
       <c r="AZ49" s="118"/>
       <c r="BA49" s="119"/>
       <c r="BB49" s="115" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC49" s="115" t="e">
-        <f t="shared" si="49"/>
+        <f t="array" ref="BC49">AB49-(BD28^(1+(AVERAGE(Q28:V28/1000000))^0.5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD49" s="116" t="e" vm="4">
@@ -20264,8 +20329,8 @@
   <mergeCells count="44">
     <mergeCell ref="AD49:AE49"/>
     <mergeCell ref="T1:T8"/>
+    <mergeCell ref="BK46:BL47"/>
     <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="BK46:BL47"/>
     <mergeCell ref="AD41:AE41"/>
     <mergeCell ref="AD32:AE32"/>
     <mergeCell ref="AD43:AE43"/>
@@ -20308,19 +20373,36 @@
     <mergeCell ref="AD38:AE38"/>
   </mergeCells>
   <conditionalFormatting sqref="BJ42 BJ44 BJ46 BJ48:BJ49">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BJ42:BJ43">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
+      <formula>5</formula>
+      <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="BK42 BK44:BL44 BK46 BK48:BL49">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+      <formula>"SELL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+      <formula>"BUY"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK42:BL43">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"OVERVALUED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"UNDERVALUED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"NEUTRAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model/access_model.xlsx
+++ b/model/access_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelp\greenback\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F71F25-B429-4D55-BEA4-9CDBC66E4632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCAB3CA-D876-4880-A961-B7D2887F017F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1983,7 +1983,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-480B-42C5-86E2-2BED5E89945A}"/>
+              <c16:uniqueId val="{00000000-24A0-41FE-AE32-A1CAB64AEAB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2507,7 +2507,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E7EB-4274-9FF9-8B5122F77CEC}"/>
+              <c16:uniqueId val="{00000001-BB3F-471E-852C-C947FCF60927}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6149,7 +6149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:U6"/>
     </sheetView>
   </sheetViews>
@@ -11288,7 +11288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BN75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AY6" sqref="AY6:BA7"/>
     </sheetView>

--- a/model/access_model.xlsx
+++ b/model/access_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelp\greenback\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCAB3CA-D876-4880-A961-B7D2887F017F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FC4669-6BC3-4043-9AA8-DB42A4495CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1983,7 +1983,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-24A0-41FE-AE32-A1CAB64AEAB3}"/>
+              <c16:uniqueId val="{00000000-1D41-40D0-97AE-2757C0C97AEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2507,7 +2507,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BB3F-471E-852C-C947FCF60927}"/>
+              <c16:uniqueId val="{00000001-88E4-4EAE-BFB3-45F96B3629A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11219,17 +11219,17 @@
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B26:C26"/>
@@ -11289,7 +11289,7 @@
   <dimension ref="A1:BN75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AY6" sqref="AY6:BA7"/>
     </sheetView>
   </sheetViews>
@@ -22210,8 +22210,8 @@
   <mergeCells count="44">
     <mergeCell ref="AD49:AE49"/>
     <mergeCell ref="T1:T8"/>
+    <mergeCell ref="Q1:Q8"/>
     <mergeCell ref="BK46:BL47"/>
-    <mergeCell ref="Q1:Q8"/>
     <mergeCell ref="AD41:AE41"/>
     <mergeCell ref="AD32:AE32"/>
     <mergeCell ref="AD43:AE43"/>
